--- a/simulated_data/dyads_simulated/cond1_drifting_coupling/HRV_B.xlsx
+++ b/simulated_data/dyads_simulated/cond1_drifting_coupling/HRV_B.xlsx
@@ -1030,2892 +1030,2892 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>633.0888192498918</v>
+        <v>633.0888192510855</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>718.4549306665389</v>
+        <v>718.4549306421388</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>762.4958967512327</v>
+        <v>762.4958835192075</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>767.6787034188948</v>
+        <v>767.6838065810472</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>720.1940296835829</v>
+        <v>720.2156628213885</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>716.8846621452047</v>
+        <v>716.8982640294672</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>718.8370872916039</v>
+        <v>718.8301137592532</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>739.2039538662516</v>
+        <v>739.1988175491377</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>791.0012772773598</v>
+        <v>790.8727742255479</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>776.3950673177504</v>
+        <v>776.0374789777131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>782.9772750402668</v>
+        <v>782.7992550764975</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>740.8692733692277</v>
+        <v>741.1741090398039</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>747.3785275919056</v>
+        <v>747.6226499435796</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>717.064841955974</v>
+        <v>717.647538108622</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>658.988466945658</v>
+        <v>659.6914409838632</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>663.5025446567511</v>
+        <v>663.465328057697</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>689.7159182943398</v>
+        <v>688.8492373093413</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>735.3450969682456</v>
+        <v>733.6290008814075</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>667.0123361719504</v>
+        <v>665.0024946938231</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>565.9622923617036</v>
+        <v>564.3533104000511</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>503.7445441264481</v>
+        <v>502.1346907630146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>502.8606766145032</v>
+        <v>501.2591713878152</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>502.5449419694183</v>
+        <v>500.9632638842589</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>576.2900490722842</v>
+        <v>573.0711153411363</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>696.6519475996051</v>
+        <v>693.7258059800371</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>764.1275756337507</v>
+        <v>763.4208402837714</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>775.4318435380725</v>
+        <v>776.5633391446727</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>750.775592751026</v>
+        <v>752.7294521191976</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>647.200856989457</v>
+        <v>649.0496910402754</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>595.7913660317899</v>
+        <v>596.248064795347</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>585.5970617264319</v>
+        <v>583.0564976404702</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>615.9938079355953</v>
+        <v>610.8887234734794</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>639.2220613321768</v>
+        <v>635.6269546011788</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>564.0966415583364</v>
+        <v>561.2821310918434</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>582.0967555782772</v>
+        <v>574.0191877714693</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>606.0598082315778</v>
+        <v>593.5289345296155</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>636.1850365237842</v>
+        <v>622.2111830307853</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>724.3602400455558</v>
+        <v>710.1770424344096</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>743.9418801920681</v>
+        <v>741.3708234748384</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>721.1757206900131</v>
+        <v>716.759462511277</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>725.9089214003751</v>
+        <v>727.8361816513268</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>630.7088748884127</v>
+        <v>631.6000859504953</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>573.8251940845629</v>
+        <v>566.7645837428097</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>629.6487584534276</v>
+        <v>607.7228922316635</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>667.138683740049</v>
+        <v>656.973872934941</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>671.9456457901032</v>
+        <v>670.8918125135455</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>707.737831885737</v>
+        <v>703.5723800171212</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>697.9927161764721</v>
+        <v>707.5245744188123</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>614.1167522519453</v>
+        <v>622.9273398591886</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>596.8150828506396</v>
+        <v>596.5574459560372</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>651.153669968906</v>
+        <v>645.3016851321252</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>643.3847686006686</v>
+        <v>631.5014549155364</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>603.4625839502183</v>
+        <v>585.5198384110736</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>563.0153264276316</v>
+        <v>550.1841626471702</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>519.9417125584631</v>
+        <v>528.1811184708829</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>486.3231867113456</v>
+        <v>494.8320248933413</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>494.1317180637697</v>
+        <v>499.0667075503978</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>545.8135840002143</v>
+        <v>529.2414148141091</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>632.62831566567</v>
+        <v>619.7927278431195</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>730.0650270047839</v>
+        <v>722.6444807352408</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>810.1251124582518</v>
+        <v>804.2332317363332</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>784.2806684374324</v>
+        <v>788.6309801185689</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>728.9587771264365</v>
+        <v>726.0765190749936</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>699.7113974912139</v>
+        <v>692.949261417084</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>668.2594483445712</v>
+        <v>671.6664468324325</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>543.9563357373061</v>
+        <v>569.8870113214412</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>460.911224913346</v>
+        <v>482.1992541288012</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>451.150609721239</v>
+        <v>447.1738877230962</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>530.8826934714972</v>
+        <v>502.3827862482761</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>621.2615383098381</v>
+        <v>584.0211793569665</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>676.9118820212867</v>
+        <v>659.4199896307487</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>666.8991730897318</v>
+        <v>647.1079540320233</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>664.6174938110647</v>
+        <v>636.7510074386189</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>722.4106077902519</v>
+        <v>668.6046644349659</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>707.2169256578889</v>
+        <v>691.7769546205506</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>688.1258520050153</v>
+        <v>649.0703721924973</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>629.4033721401036</v>
+        <v>636.5381485298798</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>580.9839543553181</v>
+        <v>593.0885685760359</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>549.3166882637439</v>
+        <v>553.2234834875993</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>542.4202098968891</v>
+        <v>515.7119590195549</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>562.4468338413919</v>
+        <v>550.3284678675726</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>562.1346382687449</v>
+        <v>557.1042051959267</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>548.1259835832333</v>
+        <v>566.2599649520388</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>563.9201047736009</v>
+        <v>541.4225783854363</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>622.2376852358309</v>
+        <v>570.252216336371</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>661.1872577449986</v>
+        <v>629.3360258754461</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>643.5080849424253</v>
+        <v>651.3822002788032</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>607.5644081379323</v>
+        <v>643.6258460793027</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>581.9588912432323</v>
+        <v>596.5870658831136</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>588.2356122877752</v>
+        <v>583.8799456498407</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>567.4409970244483</v>
+        <v>589.9269294930036</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>508.7276362667694</v>
+        <v>553.6066106375017</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>505.4900464411105</v>
+        <v>519.2492243236586</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>503.2330248448602</v>
+        <v>512.6584688119351</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>498.2261413070148</v>
+        <v>507.6577811122149</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>498.5434232412445</v>
+        <v>507.3214477037311</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>494.6140174846505</v>
+        <v>504.0153013162296</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>539.6087187381795</v>
+        <v>516.106717754667</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>526.4610286822631</v>
+        <v>541.6069829348942</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>555.5969336895146</v>
+        <v>525.0014022967662</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>561.067190191693</v>
+        <v>529.1767241104992</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>577.9503015890839</v>
+        <v>529.682936443038</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>608.6026892993459</v>
+        <v>549.5825869663804</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>586.8397396056366</v>
+        <v>574.7430708496211</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>596.589290204804</v>
+        <v>584.4222886809405</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>653.722463725245</v>
+        <v>612.272675758561</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>610.1751661987578</v>
+        <v>670.6660863170839</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>592.3357540667098</v>
+        <v>603.0828751125625</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>597.3683143831465</v>
+        <v>583.7481780706639</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>628.7550991609692</v>
+        <v>585.7705718848365</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>571.508803228113</v>
+        <v>610.5205720414233</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>562.8410241286019</v>
+        <v>544.1739815764208</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>492.3854375629162</v>
+        <v>537.2582250035975</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>489.2239757591597</v>
+        <v>492.4124590332895</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>488.1958432870306</v>
+        <v>509.7320517762682</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>466.2771919530542</v>
+        <v>505.312455236691</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>471.5954854093809</v>
+        <v>477.0469133485449</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>541.8561183197426</v>
+        <v>492.7688162956088</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>581.8054814938307</v>
+        <v>560.8031388845518</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>539.3022950287047</v>
+        <v>564.2828881167361</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>504.6997369585142</v>
+        <v>519.1415811503646</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>489.5563929015907</v>
+        <v>494.3416967819871</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>548.1734406195642</v>
+        <v>497.9268777557877</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>690.0263517192968</v>
+        <v>567.4476377976987</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>798.4307063699134</v>
+        <v>715.3653296300604</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>749.5481635510259</v>
+        <v>806.3572681717233</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>737.8253168475055</v>
+        <v>755.7919232559414</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>694.714950757259</v>
+        <v>752.9935807902746</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>577.8907933063238</v>
+        <v>675.471800469893</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>475.1752484714871</v>
+        <v>561.1602861247036</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>432.3642577666931</v>
+        <v>471.1742914407182</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>448.3462090267665</v>
+        <v>435.8008754138325</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>539.7399032050032</v>
+        <v>460.4555513624859</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>547.6111001932509</v>
+        <v>520.2129125406714</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>562.6698270093016</v>
+        <v>528.3704132259288</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>640.5446566419073</v>
+        <v>551.6661603559783</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>660.3859214120007</v>
+        <v>648.0409144227792</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>599.5478677320705</v>
+        <v>677.2397864218078</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>587.0907456429109</v>
+        <v>611.0827186537904</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>624.3307144228254</v>
+        <v>607.3449697455828</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>647.8027004926616</v>
+        <v>646.1727851286128</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>670.6736277220386</v>
+        <v>669.9306953932762</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>695.6141573906791</v>
+        <v>677.4951796623441</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>718.5392335290715</v>
+        <v>707.1863424241087</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>741.706059500018</v>
+        <v>725.0091745897578</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>718.8430163201929</v>
+        <v>734.3515470034561</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>647.7095937843842</v>
+        <v>683.64773729013</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>555.3671802957467</v>
+        <v>600.3996420245983</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>471.5317944180129</v>
+        <v>516.7503260987303</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>459.6056840759104</v>
+        <v>440.2844656688671</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>544.9622145649755</v>
+        <v>450.4241046509492</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>609.1470913845853</v>
+        <v>560.5017580351159</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>641.5489182344061</v>
+        <v>632.2197205024906</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>685.8029574771365</v>
+        <v>664.934013886608</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>733.9294988449296</v>
+        <v>707.9512872818441</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>749.2027141635162</v>
+        <v>757.1970440574205</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>739.0231943779497</v>
+        <v>756.622417104154</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>727.9765671274561</v>
+        <v>729.7311110796159</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>740.6128176635605</v>
+        <v>705.2940573808257</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>816.668168639751</v>
+        <v>736.7425247158224</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>838.7031822982181</v>
+        <v>819.6031221659155</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>849.8371409258993</v>
+        <v>843.1312252715202</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>807.8596645113976</v>
+        <v>844.258323183368</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>750.7300263136756</v>
+        <v>801.742708229682</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>654.4167219520602</v>
+        <v>720.580852453196</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>677.5074084924029</v>
+        <v>648.302293903015</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>696.8213327209014</v>
+        <v>668.8960142011524</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>686.1578413077041</v>
+        <v>698.8376260736118</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>695.1924875498037</v>
+        <v>687.2312741056419</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>679.6851517668472</v>
+        <v>679.4327286351631</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>698.2081212037485</v>
+        <v>670.7285736675033</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>707.0568470783201</v>
+        <v>693.7998113098729</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>722.3221324620113</v>
+        <v>704.6662871277647</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>709.9707239550526</v>
+        <v>727.2598369008847</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>697.5344341273342</v>
+        <v>718.3528841200655</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>672.4720175101595</v>
+        <v>702.4823550241877</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>684.7519278938989</v>
+        <v>667.8988417941412</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>708.140682261984</v>
+        <v>674.1271107944726</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>710.5463435210879</v>
+        <v>694.746466178799</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>727.7362964351823</v>
+        <v>699.2626634826422</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>683.3996249472136</v>
+        <v>719.0855420624018</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>581.1437510170094</v>
+        <v>686.0775150671827</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>537.7332390075935</v>
+        <v>587.9019052258911</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>545.3505403141321</v>
+        <v>536.4854351957717</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>558.7397112851136</v>
+        <v>537.9418614543852</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>556.2247141775458</v>
+        <v>551.1356130477338</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>532.8222607538748</v>
+        <v>551.4517752696406</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>510.5648256912332</v>
+        <v>530.9645252306154</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>494.604684007669</v>
+        <v>509.43386376386</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>500.5985477004629</v>
+        <v>490.8194858796833</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>491.5232245544701</v>
+        <v>492.7371934926441</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>520.90504483877</v>
+        <v>487.334978262993</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>553.3248176901679</v>
+        <v>517.7357200451809</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>560.9348365533151</v>
+        <v>551.9969367854571</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>589.7439766756065</v>
+        <v>557.8363324900124</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>666.68132830236</v>
+        <v>575.1892001758847</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>700.7774178158286</v>
+        <v>644.5835890785077</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>719.5183964953458</v>
+        <v>679.2064373908886</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>661.7812204356142</v>
+        <v>708.4125078713157</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>615.4589839240998</v>
+        <v>662.3661847812343</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>617.2388320011919</v>
+        <v>611.2658735852676</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>643.0971768855045</v>
+        <v>619.9642736781357</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>714.2419535701663</v>
+        <v>640.9113954061922</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>715.1629109780799</v>
+        <v>709.2999355748475</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>705.7532019236703</v>
+        <v>720.6810961869792</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>682.4813236725049</v>
+        <v>704.7888314505713</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>631.6493271676222</v>
+        <v>678.2185811826196</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>627.1656652565696</v>
+        <v>634.1629173513752</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>631.4555549268448</v>
+        <v>617.878918859617</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>662.2351937465965</v>
+        <v>626.6161959108274</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>738.9035428435307</v>
+        <v>645.8690842884494</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>771.2233637761301</v>
+        <v>722.8070732323602</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>707.1172889380932</v>
+        <v>772.9607378629169</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>687.380893970186</v>
+        <v>717.3066342360244</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>722.2811009331735</v>
+        <v>675.9046814154317</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>780.9991421561335</v>
+        <v>708.7328218649418</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>771.8500920253177</v>
+        <v>762.9697838474101</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>690.6818756503128</v>
+        <v>782.8416902961521</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>633.6147790144935</v>
+        <v>713.7793197170197</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>646.2809956928197</v>
+        <v>637.7621539429299</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>655.1157509130974</v>
+        <v>633.0638650355809</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>604.3274758729069</v>
+        <v>659.8003387395579</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>614.1516569274756</v>
+        <v>615.7851344848098</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>688.6532134082017</v>
+        <v>600.9546894465529</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>723.4147560326676</v>
+        <v>670.0620222271425</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>675.9337013463949</v>
+        <v>718.6069440975871</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>669.0494307033532</v>
+        <v>689.6908016536827</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>623.6124881120304</v>
+        <v>665.6404064419803</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>552.6140844338556</v>
+        <v>641.7837035630782</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>525.5085400671078</v>
+        <v>564.0713445504844</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>504.2930655969826</v>
+        <v>530.8844062956837</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>536.1978526779296</v>
+        <v>502.6836795092038</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>607.2009538179088</v>
+        <v>517.0282678191711</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>676.2356399674445</v>
+        <v>586.7586398330218</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>731.0630910732243</v>
+        <v>659.4717459791752</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>740.5510715339005</v>
+        <v>725.0538040300967</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>740.6080565938851</v>
+        <v>742.611215105768</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>743.9367261191592</v>
+        <v>743.1951787891933</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>751.2405048066739</v>
+        <v>741.2947141521613</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>680.2671258411692</v>
+        <v>762.3908675291204</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>610.1473740642973</v>
+        <v>699.2030938356777</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>580.2508055005262</v>
+        <v>623.571230607439</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>574.4831228089424</v>
+        <v>591.4237992608662</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>599.0318785323723</v>
+        <v>566.5086740196443</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>615.1633954642648</v>
+        <v>591.2952480162517</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>616.3017593380857</v>
+        <v>613.7139534346829</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>631.5062553395876</v>
+        <v>610.0311086487409</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>668.9374673344162</v>
+        <v>623.6231353663584</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>756.0587660473743</v>
+        <v>649.6831674476198</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>776.5695371922732</v>
+        <v>735.0652459227831</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>677.0750706328954</v>
+        <v>787.6239617068279</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>626.2003424591853</v>
+        <v>705.8795087762633</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>625.3684638870993</v>
+        <v>623.6333213934699</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>626.4904746665252</v>
+        <v>616.4409530416322</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>627.1436137795945</v>
+        <v>628.2318698767995</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>672.9333652248215</v>
+        <v>615.5791059253204</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>669.2720032550881</v>
+        <v>649.4935131596549</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>650.0481061749497</v>
+        <v>674.4471270651218</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>663.4908089203009</v>
+        <v>647.7846678053538</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>682.2032443713226</v>
+        <v>652.9814187163652</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>636.68840383869</v>
+        <v>681.8067400980112</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>570.93331897903</v>
+        <v>657.6919526489462</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>537.8585045670548</v>
+        <v>589.8360046144546</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>573.2117521945668</v>
+        <v>546.8429916367086</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>610.3418542999748</v>
+        <v>554.4714941750613</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>649.2103694432387</v>
+        <v>594.0204679475585</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>671.9180229210053</v>
+        <v>643.7548797247814</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>719.2656405397031</v>
+        <v>642.9857634292375</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>674.3995044342057</v>
+        <v>711.9849923714128</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>700.4475452264387</v>
+        <v>692.1728123100479</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>682.1669979519243</v>
+        <v>686.2351785876797</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>706.3857431591316</v>
+        <v>695.9495934041229</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>692.5375373313329</v>
+        <v>709.5864414068842</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>634.3698136642217</v>
+        <v>695.9096982085384</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>557.0261197406978</v>
+        <v>666.0515223425421</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>522.8504674679186</v>
+        <v>581.6310680596359</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>516.23689492925</v>
+        <v>536.379060575257</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>540.1988350339764</v>
+        <v>520.1126907190314</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>560.9173079125753</v>
+        <v>524.2808607928566</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>577.0907541765098</v>
+        <v>555.1366888922473</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>593.6118433854176</v>
+        <v>577.8395021644656</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>629.8638856970626</v>
+        <v>595.7116476282351</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>666.7499417472698</v>
+        <v>611.7487563017505</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>663.8185701200712</v>
+        <v>653.0412636443543</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>664.169872565509</v>
+        <v>663.3781829261238</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>616.230240487539</v>
+        <v>660.9096788507713</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>577.7195824813646</v>
+        <v>633.9582611787762</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>515.5805615152929</v>
+        <v>596.4691011099603</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>451.1533294410413</v>
+        <v>545.2851292326955</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>450.3524871984155</v>
+        <v>475.978754763247</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>459.310770134266</v>
+        <v>443.5860443921911</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>485.6590206292708</v>
+        <v>453.8568811159109</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>506.4551994457815</v>
+        <v>469.3983066469798</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>528.7050495248877</v>
+        <v>490.2437063258844</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>621.0093753995807</v>
+        <v>506.3203673369117</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>732.9305952591767</v>
+        <v>558.8795396395767</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>802.5086317560977</v>
+        <v>680.4448952231041</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>805.6524571653654</v>
+        <v>777.611508097948</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>736.0275426514704</v>
+        <v>819.9082549422201</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>685.6847629405252</v>
+        <v>796.8598940506126</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>688.0665759345561</v>
+        <v>723.1720428499102</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>713.5680897488896</v>
+        <v>686.8887005944089</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>735.7844791280854</v>
+        <v>694.619982156496</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>750.2528788857035</v>
+        <v>743.943001286425</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>743.2446715849323</v>
+        <v>730.7035998991864</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>759.0023934110377</v>
+        <v>722.7136791140651</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>746.6523690462168</v>
+        <v>731.879489345431</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>685.766302524712</v>
+        <v>747.6521133090159</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>663.9833896109053</v>
+        <v>715.6450741160256</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>698.8711756480939</v>
+        <v>666.882001397596</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>679.6542390105742</v>
+        <v>712.3320762188428</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>692.6960022268531</v>
+        <v>690.4080982284313</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>698.7527291005904</v>
+        <v>683.480734981913</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>664.6737896300579</v>
+        <v>712.3722830313568</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>628.6527236520669</v>
+        <v>696.8086902090249</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>643.736815076636</v>
+        <v>646.8054979409317</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>724.2793971483934</v>
+        <v>648.0882549006992</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>726.8912936912102</v>
+        <v>708.749496970313</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>708.2582843610794</v>
+        <v>754.1963694676497</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>673.8854901780087</v>
+        <v>718.9164999632567</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>650.3338188533121</v>
+        <v>694.6690475974151</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>639.5827118581678</v>
+        <v>657.7911375149483</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>621.6764370774399</v>
+        <v>632.0467174990085</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>627.5970298610218</v>
+        <v>619.2153202352415</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>655.8936596865124</v>
+        <v>622.5888611043047</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>668.2385866043887</v>
+        <v>634.8956922390698</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>710.8986470419154</v>
+        <v>653.698336394541</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>769.2336728289888</v>
+        <v>674.7224949309611</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>747.1092190747868</v>
+        <v>736.3716388187527</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>665.9024146408115</v>
+        <v>766.1645651007802</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>594.1250254297188</v>
+        <v>708.7251267767556</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>588.6053399316893</v>
+        <v>626.6823367542997</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>589.8669398640664</v>
+        <v>599.8702015550634</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>612.9153306690114</v>
+        <v>584.4313740755069</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>593.4044958305549</v>
+        <v>612.6144927135329</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>613.6468404812376</v>
+        <v>584.4674923810658</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>623.2493947925946</v>
+        <v>594.8445039889521</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>657.0606949343301</v>
+        <v>604.4873298221205</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>686.919243421471</v>
+        <v>636.453417220423</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>691.7935780484186</v>
+        <v>643.6520613419248</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>641.1702345729395</v>
+        <v>676.0799163653246</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>583.8630159939839</v>
+        <v>664.6501647858827</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>606.34798056725</v>
+        <v>621.8361246712334</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>610.6675722410841</v>
+        <v>635.23662188868</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>578.2678313003657</v>
+        <v>647.7072887372515</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>599.7278132037422</v>
+        <v>616.0150395072037</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>598.9179735993844</v>
+        <v>614.9796076339271</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>676.0767994505841</v>
+        <v>614.3684524215018</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>719.9279957394538</v>
+        <v>662.9036581285277</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>677.2266786976502</v>
+        <v>699.6139654687568</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>623.7710135656584</v>
+        <v>660.6253479262136</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>616.9190264331519</v>
+        <v>587.5425836999852</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>612.1524731760246</v>
+        <v>588.10890175846</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>656.1881933010909</v>
+        <v>599.3161796528739</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>616.1458913484807</v>
+        <v>654.6381679435171</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>505.0205516646429</v>
+        <v>651.0987761193974</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>516.3757721365414</v>
+        <v>555.7864120586373</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>551.6691517690901</v>
+        <v>540.395436099061</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>565.0237422059945</v>
+        <v>565.1443685101754</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>593.9707867821085</v>
+        <v>577.0220982406045</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>648.4811414225646</v>
+        <v>585.5042092670715</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>632.8677896482873</v>
+        <v>651.6100191346368</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>632.879039037789</v>
+        <v>652.0472956299841</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>671.0026279473027</v>
+        <v>627.6267818239489</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>698.587060399916</v>
+        <v>639.8601284048482</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>639.400746816932</v>
+        <v>669.5587249325285</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>624.3420289118831</v>
+        <v>643.622389115535</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>650.9503311348794</v>
+        <v>637.7173596314947</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>651.5776525671413</v>
+        <v>678.5470742673283</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>600.9096812366579</v>
+        <v>678.2682017073398</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>556.5211631184752</v>
+        <v>632.1235716212641</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>582.6871538889122</v>
+        <v>569.6236395975234</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>604.7394080033541</v>
+        <v>580.5431944984889</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>616.4317697976571</v>
+        <v>589.5742633342138</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>681.6641481452166</v>
+        <v>587.2251338888645</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>748.9455486437464</v>
+        <v>644.8634580473254</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>784.2464425445428</v>
+        <v>760.9509213677939</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>854.9250296210289</v>
+        <v>791.399877505512</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>871.1496980721449</v>
+        <v>864.7500213131138</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>752.9337073347051</v>
+        <v>892.0332181004937</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>748.3287619832595</v>
+        <v>765.6201431628915</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>781.1265197368016</v>
+        <v>766.8370242474225</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>749.7426247252861</v>
+        <v>795.2829165121216</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>747.2178418035469</v>
+        <v>753.2357398729346</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>670.4361573335973</v>
+        <v>756.4704690919939</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>599.8905443660192</v>
+        <v>687.7059284872757</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>637.8493600581692</v>
+        <v>628.0939582160272</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>674.2168327835998</v>
+        <v>677.4580542268609</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>608.4941347170911</v>
+        <v>693.4381273674148</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>630.5190917575487</v>
+        <v>614.7719148343072</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>679.6479367522466</v>
+        <v>656.1052911079628</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>652.2587453020492</v>
+        <v>678.0691192859081</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>702.2776475553769</v>
+        <v>666.9118026407546</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>709.531768066995</v>
+        <v>731.8130428729432</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>666.7630631317252</v>
+        <v>719.4736796687948</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>698.4358640011692</v>
+        <v>674.4528409099644</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>766.5485170668944</v>
+        <v>722.0423395023658</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>790.1701669941872</v>
+        <v>767.975334763662</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>720.9831027417408</v>
+        <v>758.396455386503</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>724.377406383212</v>
+        <v>708.1212422970111</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>788.2238440423066</v>
+        <v>758.5742993478561</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>711.390939399962</v>
+        <v>792.4557940042973</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>671.9374309516866</v>
+        <v>684.8765792108793</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>666.2002292476927</v>
+        <v>684.324018671532</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>677.5855139880491</v>
+        <v>681.2239572264502</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>688.890169293245</v>
+        <v>675.9214373947202</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>709.3235131086999</v>
+        <v>696.015224840437</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>705.3896878949217</v>
+        <v>706.2703633908427</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>735.3436024432085</v>
+        <v>707.1554766168902</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>741.4848420180533</v>
+        <v>747.7386275377285</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>706.2258274985425</v>
+        <v>761.088769511332</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>611.8412409676353</v>
+        <v>666.4748089296495</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>589.3598522112029</v>
+        <v>589.6313272816087</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>601.5071412161888</v>
+        <v>580.7574540344262</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>615.8358085671694</v>
+        <v>593.5294927562609</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>633.8705811830891</v>
+        <v>613.0317199534261</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>700.8687209128084</v>
+        <v>646.7328214544636</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>725.0401773787303</v>
+        <v>722.0509613152899</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>697.3943596213417</v>
+        <v>720.9775836208792</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>765.3040691879482</v>
+        <v>717.5516180857358</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>743.8354866746977</v>
+        <v>780.6014551977114</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>697.1147977322971</v>
+        <v>735.9297301624679</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>709.746809692831</v>
+        <v>709.6732961645102</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>680.5773406871367</v>
+        <v>717.4639814082298</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>621.9278870112817</v>
+        <v>668.7346454993985</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>579.922960404474</v>
+        <v>607.7537088263512</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>500.3261537423782</v>
+        <v>535.8909543771802</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>485.3307312397419</v>
+        <v>485.3639728689814</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>490.5380747718482</v>
+        <v>489.9800152579701</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>511.295748429518</v>
+        <v>493.3808283248595</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>610.3521359192428</v>
+        <v>532.3097380510831</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>668.0423634362</v>
+        <v>628.1747562745181</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>685.013383523426</v>
+        <v>678.6782535376119</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>733.4719090679869</v>
+        <v>714.7596356390977</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>720.6816244838024</v>
+        <v>748.6152492417659</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>707.23719112749</v>
+        <v>722.1906844087016</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>639.6160738730146</v>
+        <v>696.8676959501749</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>620.76919951528</v>
+        <v>635.7114130810828</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>581.0283203784365</v>
+        <v>611.1273958106267</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>580.8380220889831</v>
+        <v>584.0285775300913</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>609.6168868908194</v>
+        <v>599.3820538994328</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>638.2444683605968</v>
+        <v>618.1421249632422</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>646.1769579764223</v>
+        <v>640.9096067029623</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>689.2451589931738</v>
+        <v>680.1276482567005</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>638.557630459502</v>
+        <v>680.3887491967657</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>589.8945619226197</v>
+        <v>635.7378502946176</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>570.593301453016</v>
+        <v>561.2166303540107</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>588.6739825848508</v>
+        <v>578.7937232778404</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>566.2855496673842</v>
+        <v>593.1892717137544</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>557.5498300159438</v>
+        <v>545.3949013224246</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>599.8027716361776</v>
+        <v>588.767997545915</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>613.9319968634709</v>
+        <v>619.0301257044553</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>637.8935363401297</v>
+        <v>619.56753443053</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>702.2167587968511</v>
+        <v>687.8576834080832</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>683.7439081463117</v>
+        <v>699.5103294580645</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>669.5530624500634</v>
+        <v>663.5091235235677</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>614.1218054950173</v>
+        <v>643.9236684500997</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>619.7198994890982</v>
+        <v>612.5531899679117</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>680.4908603544959</v>
+        <v>661.9158289905727</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>703.4270132248821</v>
+        <v>696.713845029592</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>678.2341243754786</v>
+        <v>679.8003593802946</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>722.9310323746745</v>
+        <v>708.826293570155</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>684.3446780038107</v>
+        <v>710.1204081794776</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>656.3310525122006</v>
+        <v>666.6851425134723</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>638.0109593807219</v>
+        <v>644.1583688410333</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>705.2265229543195</v>
+        <v>681.4882535566085</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>706.8605208137342</v>
+        <v>701.069923476723</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>670.3489780232417</v>
+        <v>697.7192555217471</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>658.6327956429727</v>
+        <v>672.3520719700673</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>654.2484845828085</v>
+        <v>636.792555440195</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>619.1788054702556</v>
+        <v>625.0951878274691</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>640.1920569598474</v>
+        <v>631.6203903920723</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>600.8842003606674</v>
+        <v>616.88161057765</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>619.0549917954513</v>
+        <v>603.7516625389685</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>614.8935704159157</v>
+        <v>625.5064512318995</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>598.4064811480607</v>
+        <v>604.610406164511</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>655.9665679182558</v>
+        <v>626.8111150593541</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>753.0931723296703</v>
+        <v>708.2548417924386</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>724.3198356824792</v>
+        <v>751.7317297172212</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>641.975547896493</v>
+        <v>693.3909917169103</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>606.7393730451158</v>
+        <v>620.3958283814472</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>592.0665449413605</v>
+        <v>606.8825366710371</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>548.5635187804405</v>
+        <v>570.8419163123608</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>482.9240405608743</v>
+        <v>514.695683178843</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>470.3599609134699</v>
+        <v>476.195917868381</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>483.8269330271032</v>
+        <v>477.6149814222208</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>556.1643174860365</v>
+        <v>532.4523414478222</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>633.3289981883468</v>
+        <v>605.1995243051351</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>694.1140648366968</v>
+        <v>674.4311930427784</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>715.81578185544</v>
+        <v>710.7346196808635</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>695.3003202192463</v>
+        <v>730.7502832034629</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>625.4338075265196</v>
+        <v>655.8288664049314</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>530.9596988930707</v>
+        <v>552.9683948054185</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>458.7956140474034</v>
+        <v>483.7595293588492</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>429.8963948805294</v>
+        <v>455.360966959006</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>420.7786608504307</v>
+        <v>417.4276012479936</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>463.1404720062164</v>
+        <v>451.1353888595977</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>493.5061550738737</v>
+        <v>480.3468601797363</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>541.0339991012165</v>
+        <v>524.9994224209331</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>553.0041600656546</v>
+        <v>562.4980652857516</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>545.6856983514058</v>
+        <v>553.3825158607328</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>551.8463656559334</v>
+        <v>541.6169082226361</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>572.9175689620547</v>
+        <v>559.1701073656736</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>522.1017895726732</v>
+        <v>540.0880227863922</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>523.0934271720571</v>
+        <v>521.0080127096148</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>498.7234928146904</v>
+        <v>503.5334747533398</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>526.8365822567489</v>
+        <v>511.2090941995575</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>543.5588418970383</v>
+        <v>539.2536094329898</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>534.9770655927841</v>
+        <v>561.8178375921161</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>517.9649917249662</v>
+        <v>513.2810932290113</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>517.0168253229122</v>
+        <v>531.6344065218459</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>513.6670905660026</v>
+        <v>508.0102098665407</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>563.9062972618945</v>
+        <v>536.1164855119682</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>635.6474088767641</v>
+        <v>617.0015387750141</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>653.4963266004183</v>
+        <v>653.6820363068614</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>647.4931212684396</v>
+        <v>643.9161908021447</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>683.183943406334</v>
+        <v>666.2455514081671</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>656.9262250872043</v>
+        <v>649.6267162233949</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>641.876993011067</v>
+        <v>651.9613360420635</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>607.2037925538893</v>
+        <v>611.0236893981096</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>559.9196639457773</v>
+        <v>581.1615034228339</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>488.4517232653707</v>
+        <v>496.5326571119704</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>467.9677741623891</v>
+        <v>482.2163114108093</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>488.5964745559477</v>
+        <v>486.2636213603082</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>494.4296914298434</v>
+        <v>497.016181487254</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>451.5714113373974</v>
+        <v>469.0328334246487</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>483.6950061720131</v>
+        <v>464.6969889486172</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>594.3861895225382</v>
+        <v>547.9892680166927</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>653.9690275600947</v>
+        <v>640.8539036174261</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>704.0781125737681</v>
+        <v>696.9788294542241</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>694.2154597470562</v>
+        <v>702.5037441553081</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>624.65209840542</v>
+        <v>649.8883153926158</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>569.7407789808722</v>
+        <v>588.5846015626726</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>560.9558007986379</v>
+        <v>571.9839217732101</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>552.9684799344068</v>
+        <v>550.6490686208281</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>522.1437428857598</v>
+        <v>537.417404804728</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>510.4114215498612</v>
+        <v>514.4369310909838</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>540.4715857606561</v>
+        <v>536.0976736952807</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>596.4552110912678</v>
+        <v>567.7121665775644</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>662.6942200238659</v>
+        <v>645.9428640774831</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>674.9653779326081</v>
+        <v>696.6461516673235</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>594.1828982728907</v>
+        <v>616.5470047885151</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>531.9754822710365</v>
+        <v>549.8469026205726</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>471.2341364578947</v>
+        <v>485.5717098265018</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>442.2612254033993</v>
+        <v>440.2249203599808</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>509.3884601590162</v>
+        <v>489.194765153627</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>588.8612912076496</v>
+        <v>561.4221374731301</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>658.8327021646592</v>
+        <v>645.0062691703806</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>704.1158526486129</v>
+        <v>684.6306122871511</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>685.3584643097861</v>
+        <v>717.8926156963712</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>700.1973988112695</v>
+        <v>694.2295228845978</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>713.368068035436</v>
+        <v>713.5079628478138</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>703.9661265878863</v>
+        <v>708.0370285841013</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>726.1862517682403</v>
+        <v>710.4122364685281</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>736.9089829799123</v>
+        <v>737.7996606489319</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>725.241926612739</v>
+        <v>733.3198003779557</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>667.650632303264</v>
+        <v>675.1769744896023</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>685.5911338492433</v>
+        <v>685.4397381816852</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>712.3424349721859</v>
+        <v>706.7689917901703</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>705.0710603264179</v>
+        <v>710.8788630394542</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>682.6172668370987</v>
+        <v>663.5099903550099</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>676.7419967396222</v>
+        <v>675.6074447730498</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>611.4488477119266</v>
+        <v>624.73951128311</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>604.7384139534984</v>
+        <v>614.9922233599341</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>574.5453084378482</v>
+        <v>579.6956375151012</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>563.960979223566</v>
+        <v>564.7906066278097</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>582.2617532596723</v>
+        <v>581.953348097386</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>591.0843618972876</v>
+        <v>575.3779207314551</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>623.97221608569</v>
+        <v>623.079392143552</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>635.5581876499627</v>
+        <v>624.5647838314312</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>646.350858945425</v>
+        <v>626.7778916967472</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>678.90241184557</v>
+        <v>660.5837073139469</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>726.4484930657318</v>
+        <v>736.4312661609347</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>741.8051662174889</v>
+        <v>736.4886836815572</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>727.0152359724307</v>
+        <v>733.7853582317848</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>669.4979953496727</v>
+        <v>679.9988719924954</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>665.6894412117822</v>
+        <v>684.4096365119867</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>608.3488287877685</v>
+        <v>618.3370521425218</v>
       </c>
     </row>
   </sheetData>

--- a/simulated_data/dyads_simulated/cond1_drifting_coupling/HRV_B.xlsx
+++ b/simulated_data/dyads_simulated/cond1_drifting_coupling/HRV_B.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A699"/>
+  <dimension ref="A1:A703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,3487 +435,3507 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>549.2624508253945</v>
+        <v>564.9266305642302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>502.8699661021523</v>
+        <v>546.791258127306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>531.0838140062446</v>
+        <v>591.9937121020704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>598.2882260105345</v>
+        <v>648.8577445451438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>670.7275132871837</v>
+        <v>684.3704086570943</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>699.677348429669</v>
+        <v>683.7894356995271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>709.8251599466705</v>
+        <v>687.4216945860105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>726.0801777708306</v>
+        <v>722.686648148545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>681.7092179497974</v>
+        <v>680.9520715928815</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>639.5911145694706</v>
+        <v>656.2465553974234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>663.4777259788001</v>
+        <v>649.8192824500472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>644.6862563137437</v>
+        <v>635.7498364903282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>698.3086415910807</v>
+        <v>714.6738734737053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>725.8656299775553</v>
+        <v>715.7812906812726</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>752.0555883941871</v>
+        <v>740.4030290368802</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>742.6169494921187</v>
+        <v>715.6879449033315</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>667.5355872089366</v>
+        <v>678.8668917580108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>625.6959244050399</v>
+        <v>630.8966894903758</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>623.1396665675763</v>
+        <v>635.4720703130088</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>582.2371209118255</v>
+        <v>613.4114612209985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>575.3515768981749</v>
+        <v>577.553501834263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>557.5784781004315</v>
+        <v>541.6571179346174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>513.7577355206382</v>
+        <v>526.8155213965393</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>568.2497142181795</v>
+        <v>587.7039591663706</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>618.1929404620519</v>
+        <v>625.4529982826202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>623.9199071081387</v>
+        <v>650.8286816478019</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>755.167643709445</v>
+        <v>760.2036784205488</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>790.3040659374553</v>
+        <v>772.7633251231545</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>744.5850178628248</v>
+        <v>714.1767786786702</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>652.901965621048</v>
+        <v>606.6993345476205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>668.4027498268712</v>
+        <v>659.0196630520176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>635.1936996879352</v>
+        <v>640.8371050657742</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>615.8730909933681</v>
+        <v>652.4164331265574</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>578.746037124862</v>
+        <v>609.7272174688549</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>644.1484238790913</v>
+        <v>651.1449529624435</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>697.1445231719038</v>
+        <v>708.6679749261577</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>685.8890265647979</v>
+        <v>689.9703209437291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>668.0558472713933</v>
+        <v>646.0779289160073</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>639.5188885037122</v>
+        <v>634.6210728863077</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>659.1039683504966</v>
+        <v>651.3818200511174</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>651.3373025105089</v>
+        <v>657.9180841607517</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>606.8615076523862</v>
+        <v>642.9486445557621</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>641.642823987489</v>
+        <v>641.7010777042335</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>601.1015349588291</v>
+        <v>602.8473742011506</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>584.2538564440111</v>
+        <v>582.9971118128369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>602.0560307258194</v>
+        <v>613.110371795166</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>650.4269929854836</v>
+        <v>643.9705610536919</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>651.0677344578362</v>
+        <v>643.9645815778867</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>635.8447631430017</v>
+        <v>617.7641004200005</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>615.8659216407436</v>
+        <v>616.8587754953841</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>558.4421115605026</v>
+        <v>557.9229062946852</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>560.2782731404687</v>
+        <v>555.3298415835925</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>522.588339278272</v>
+        <v>527.4897481768761</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>587.6964078937235</v>
+        <v>588.7866546495459</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>715.6688571225942</v>
+        <v>714.4080725198662</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>793.7037823166264</v>
+        <v>777.166923069494</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>731.0672550759919</v>
+        <v>714.9537153831388</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>596.8871015405881</v>
+        <v>579.4660595385822</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>542.3210318236399</v>
+        <v>541.2769345634132</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>505.4876226222191</v>
+        <v>530.4754684745916</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>486.073034341473</v>
+        <v>514.9253156474956</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>485.5318994682705</v>
+        <v>500.189009848647</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>468.3601761099041</v>
+        <v>469.631060930908</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>464.401563718063</v>
+        <v>465.7664011446272</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>475.0679392023258</v>
+        <v>467.3535243257945</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>533.1286767860845</v>
+        <v>511.0186005352944</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>567.7697578950927</v>
+        <v>535.2758872463071</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>600.9701245232861</v>
+        <v>570.2179189564873</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>648.1657110261879</v>
+        <v>629.6984918560611</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>643.4560948411985</v>
+        <v>649.3870047363046</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>678.1480365327823</v>
+        <v>683.2922197738753</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>694.5482625260695</v>
+        <v>714.0337179882649</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>693.3974483362349</v>
+        <v>705.5446388069413</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>637.5396060257543</v>
+        <v>633.2758934469069</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>558.8782007698683</v>
+        <v>547.0933372123454</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>522.5299274943183</v>
+        <v>501.5514591851939</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>507.0215838347281</v>
+        <v>479.1581119968669</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>458.8780110955568</v>
+        <v>443.6065045762163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>470.6371113505625</v>
+        <v>472.6225161285598</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>500.3207025039629</v>
+        <v>503.7666682697619</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>569.072948606994</v>
+        <v>575.9990740915625</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>629.8270742515655</v>
+        <v>626.1464892957349</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>680.3664381304557</v>
+        <v>691.7907056607291</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>708.9094738603308</v>
+        <v>721.8332925423069</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>689.4184070478389</v>
+        <v>670.4539320034471</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>638.618556321667</v>
+        <v>654.512596838785</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>597.7717364401656</v>
+        <v>609.3003332375275</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>517.7454367778366</v>
+        <v>514.4048359741121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>463.9738290064628</v>
+        <v>456.1233003053431</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>417.5301210703211</v>
+        <v>435.1391920093661</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>409.9558195159929</v>
+        <v>427.5612551017716</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>420.0898333335488</v>
+        <v>413.9737487674893</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>455.6364364174783</v>
+        <v>440.6391271941175</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>535.1339762169545</v>
+        <v>531.6034567938175</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>615.4124224189843</v>
+        <v>637.2914268471845</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>626.746415592386</v>
+        <v>634.5309534463795</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>671.6687291887879</v>
+        <v>634.4689718015034</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>646.4218181570374</v>
+        <v>630.6750884650114</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>607.7404602373662</v>
+        <v>632.6796133329183</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>592.3136667030349</v>
+        <v>610.2836838253012</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>593.6010460086152</v>
+        <v>606.314309742487</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>604.3124023404545</v>
+        <v>630.2613601634022</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>623.1022004272688</v>
+        <v>630.9727530956906</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>600.0125901871841</v>
+        <v>605.9583972880773</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>574.8934688839072</v>
+        <v>578.2621275208442</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>559.8050657145918</v>
+        <v>571.7390443535493</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>569.4287623200864</v>
+        <v>566.2727341161116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>555.5171956670506</v>
+        <v>535.7068131996954</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>540.9571112605107</v>
+        <v>522.5296482938262</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>514.3940585728757</v>
+        <v>512.2997005773726</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>536.1810772006947</v>
+        <v>520.7569088526611</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>540.3994342207739</v>
+        <v>511.9252459741546</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>636.2403998286368</v>
+        <v>567.220629476239</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>684.9933122256573</v>
+        <v>663.8809480487851</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>589.2299743018725</v>
+        <v>657.1536785912855</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>541.4078844050891</v>
+        <v>572.8621886470222</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>536.7214143521011</v>
+        <v>530.3920797547335</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>524.4249706441053</v>
+        <v>558.4842811126975</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>557.5377477191665</v>
+        <v>567.3164257117804</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>633.0888192510855</v>
+        <v>633.1245950884465</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>718.4549306421388</v>
+        <v>708.8416251108356</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>762.4958835192075</v>
+        <v>748.6278101185206</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>767.6838065810472</v>
+        <v>769.1431919549672</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>720.2156628213885</v>
+        <v>760.8419842503906</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>716.8982640294672</v>
+        <v>700.3447852763429</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>718.8301137592532</v>
+        <v>715.5574702144776</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>739.1988175491377</v>
+        <v>719.5289805754328</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>790.8727742255479</v>
+        <v>743.9174411420311</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>776.0374789777131</v>
+        <v>743.7481680728553</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>782.7992550764975</v>
+        <v>781.3651926004752</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>741.1741090398039</v>
+        <v>768.1620868526551</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>747.6226499435796</v>
+        <v>754.1841388910768</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>717.647538108622</v>
+        <v>776.9422719942156</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>659.6914409838632</v>
+        <v>676.1936050747721</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>663.465328057697</v>
+        <v>648.9093437026554</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>688.8492373093413</v>
+        <v>658.1877487080732</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>733.6290008814075</v>
+        <v>719.8207425602448</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>665.0024946938231</v>
+        <v>709.1800257745717</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>564.3533104000511</v>
+        <v>648.9794881354669</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>502.1346907630146</v>
+        <v>550.557220531104</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>501.2591713878152</v>
+        <v>520.5529284618819</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>500.9632638842589</v>
+        <v>523.0963280625218</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>573.0711153411363</v>
+        <v>561.0602023831319</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>693.7258059800371</v>
+        <v>647.7443028127396</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>763.4208402837714</v>
+        <v>729.368648206659</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>776.5633391446727</v>
+        <v>755.0378960567343</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>752.7294521191976</v>
+        <v>741.3513390339261</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>649.0496910402754</v>
+        <v>668.2904917036865</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>596.248064795347</v>
+        <v>650.9225730276142</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>583.0564976404702</v>
+        <v>626.2839303265508</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>610.8887234734794</v>
+        <v>621.4200826293563</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>635.6269546011788</v>
+        <v>631.1948694848581</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>561.2821310918434</v>
+        <v>587.3148872756531</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>574.0191877714693</v>
+        <v>569.4774747530573</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>593.5289345296155</v>
+        <v>562.515203060741</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>622.2111830307853</v>
+        <v>595.7860648884719</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>710.1770424344096</v>
+        <v>683.3159396276898</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>741.3708234748384</v>
+        <v>775.6336995928024</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>716.759462511277</v>
+        <v>786.8043984687461</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>727.8361816513268</v>
+        <v>757.0333887344134</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>631.6000859504953</v>
+        <v>630.3106131284864</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>566.7645837428097</v>
+        <v>567.5012115989233</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>607.7228922316635</v>
+        <v>585.9668616872256</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>656.973872934941</v>
+        <v>629.9700243759787</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>670.8918125135455</v>
+        <v>656.5544313342144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>703.5723800171212</v>
+        <v>686.3843223596291</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>707.5245744188123</v>
+        <v>724.1032035071555</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>622.9273398591886</v>
+        <v>634.33252385137</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>596.5574459560372</v>
+        <v>628.345854709778</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>645.3016851321252</v>
+        <v>643.0725596382132</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>631.5014549155364</v>
+        <v>608.9630889638187</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>585.5198384110736</v>
+        <v>554.9724663988513</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>550.1841626471702</v>
+        <v>537.0455751918684</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>528.1811184708829</v>
+        <v>531.9689013975051</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>494.8320248933413</v>
+        <v>493.7402087478517</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>499.0667075503978</v>
+        <v>494.7405879737374</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>529.2414148141091</v>
+        <v>521.2590272815305</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>619.7927278431195</v>
+        <v>603.3753008083096</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>722.6444807352408</v>
+        <v>696.9605221074886</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>804.2332317363332</v>
+        <v>805.1599505739944</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>788.6309801185689</v>
+        <v>796.0436784404408</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>726.0765190749936</v>
+        <v>749.7906019004574</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>692.949261417084</v>
+        <v>703.2717243413771</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>671.6664468324325</v>
+        <v>683.7925684651367</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>569.8870113214412</v>
+        <v>601.2106872727969</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>482.1992541288012</v>
+        <v>502.5905990874975</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>447.1738877230962</v>
+        <v>431.3471566543825</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>502.3827862482761</v>
+        <v>440.7727210527241</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>584.0211793569665</v>
+        <v>522.7095445878689</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>659.4199896307487</v>
+        <v>619.8637197018115</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>647.1079540320233</v>
+        <v>671.1903000560113</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>636.7510074386189</v>
+        <v>672.9206742481182</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>668.6046644349659</v>
+        <v>671.4237482647576</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>691.7769546205506</v>
+        <v>728.0722092447292</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>649.0703721924973</v>
+        <v>657.5074432426078</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>636.5381485298798</v>
+        <v>661.6275836245507</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>593.0885685760359</v>
+        <v>600.9616783613012</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>553.2234834875993</v>
+        <v>527.0236528714065</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>515.7119590195549</v>
+        <v>523.1976911191651</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>550.3284678675726</v>
+        <v>519.2258962912746</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>557.1042051959267</v>
+        <v>546.6362018427873</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>566.2599649520388</v>
+        <v>547.9560649315829</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>541.4225783854363</v>
+        <v>549.2711740965746</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>570.252216336371</v>
+        <v>573.4568513018559</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>629.3360258754461</v>
+        <v>629.6391231940817</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>651.3822002788032</v>
+        <v>661.8919047128173</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>643.6258460793027</v>
+        <v>652.6990779395874</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>596.5870658831136</v>
+        <v>622.8006437923739</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>583.8799456498407</v>
+        <v>595.2776194341141</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>589.9269294930036</v>
+        <v>590.6665208167681</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>553.6066106375017</v>
+        <v>582.1441758189962</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>519.2492243236586</v>
+        <v>530.0939945539085</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>512.6584688119351</v>
+        <v>488.7340193648981</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>507.6577811122149</v>
+        <v>484.683783448645</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>507.3214477037311</v>
+        <v>516.5353258472294</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>504.0153013162296</v>
+        <v>526.944983316838</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>516.106717754667</v>
+        <v>489.7674604232236</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>541.6069829348942</v>
+        <v>515.6086878712927</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>525.0014022967662</v>
+        <v>511.8650010665817</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>529.1767241104992</v>
+        <v>541.2991094205495</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>529.682936443038</v>
+        <v>561.9734027914376</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>549.5825869663804</v>
+        <v>558.8372221383224</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>574.7430708496211</v>
+        <v>576.1095003301193</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>584.4222886809405</v>
+        <v>578.5340092660931</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>612.272675758561</v>
+        <v>578.2886693017986</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>670.6660863170839</v>
+        <v>592.6583615623144</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>603.0828751125625</v>
+        <v>617.188699265256</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>583.7481780706639</v>
+        <v>587.2461417357613</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>585.7705718848365</v>
+        <v>571.3221593166224</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>610.5205720414233</v>
+        <v>594.8267843565134</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>544.1739815764208</v>
+        <v>617.3916274129567</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>537.2582250035975</v>
+        <v>567.2659413404801</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>492.4124590332895</v>
+        <v>506.3385957747641</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>509.7320517762682</v>
+        <v>472.0581820257337</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>505.312455236691</v>
+        <v>482.4065899137508</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>477.0469133485449</v>
+        <v>492.447059367322</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>492.7688162956088</v>
+        <v>493.4935156094866</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>560.8031388845518</v>
+        <v>497.4662204292031</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>564.2828881167361</v>
+        <v>563.308974237799</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>519.1415811503646</v>
+        <v>561.0711297331648</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>494.3416967819871</v>
+        <v>508.2470149467326</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>497.9268777557877</v>
+        <v>489.8339393414233</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>567.4476377976987</v>
+        <v>514.4279706696864</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>715.3653296300604</v>
+        <v>579.210496143304</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>806.3572681717233</v>
+        <v>715.2844206275972</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>755.7919232559414</v>
+        <v>790.3142225677016</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>752.9935807902746</v>
+        <v>742.9475382712951</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>675.471800469893</v>
+        <v>765.0917881260284</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>561.1602861247036</v>
+        <v>661.192969603519</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>471.1742914407182</v>
+        <v>539.5548245130612</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>435.8008754138325</v>
+        <v>475.2694687303745</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>460.4555513624859</v>
+        <v>449.0234102353554</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>520.2129125406714</v>
+        <v>481.8992699574949</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>528.3704132259288</v>
+        <v>534.5650932057424</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>551.6661603559783</v>
+        <v>544.7846455431034</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>648.0409144227792</v>
+        <v>561.8096022036525</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>677.2397864218078</v>
+        <v>644.8394302821896</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>611.0827186537904</v>
+        <v>668.0354458583224</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>607.3449697455828</v>
+        <v>606.7067325923858</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>646.1727851286128</v>
+        <v>606.9813141752149</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>669.9306953932762</v>
+        <v>652.5039521870326</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>677.4951796623441</v>
+        <v>663.6583624005823</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>707.1863424241087</v>
+        <v>673.7749413650249</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>725.0091745897578</v>
+        <v>712.3124815032895</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>734.3515470034561</v>
+        <v>724.0074369796616</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>683.64773729013</v>
+        <v>734.6702338545583</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>600.3996420245983</v>
+        <v>698.2517738994716</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>516.7503260987303</v>
+        <v>598.0774867531977</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>440.2844656688671</v>
+        <v>511.2825842859934</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>450.4241046509492</v>
+        <v>444.2400332676755</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>560.5017580351159</v>
+        <v>434.1884454211993</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>632.2197205024906</v>
+        <v>523.4377366398348</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>664.934013886608</v>
+        <v>605.1040835183699</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>707.9512872818441</v>
+        <v>635.4210470715884</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>757.1970440574205</v>
+        <v>695.9343015264494</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>756.622417104154</v>
+        <v>742.7466440728097</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>729.7311110796159</v>
+        <v>759.2530577509251</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>705.2940573808257</v>
+        <v>767.0190873501781</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>736.7425247158224</v>
+        <v>703.4820155037096</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>819.6031221659155</v>
+        <v>723.8772048865485</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>843.1312252715202</v>
+        <v>802.544555203724</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>844.258323183368</v>
+        <v>825.7402542765249</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>801.742708229682</v>
+        <v>860.1028346670034</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>720.580852453196</v>
+        <v>819.4967715925827</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>648.302293903015</v>
+        <v>743.1052968975393</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>668.8960142011524</v>
+        <v>638.4013019106192</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>698.8376260736118</v>
+        <v>666.2580244517926</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>687.2312741056419</v>
+        <v>676.9466252133043</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>679.4327286351631</v>
+        <v>699.1123912964952</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>670.7285736675033</v>
+        <v>717.8659972269656</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>693.7998113098729</v>
+        <v>669.0936793361288</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>704.6662871277647</v>
+        <v>690.1594023801749</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>727.2598369008847</v>
+        <v>699.0514601185112</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>718.3528841200655</v>
+        <v>710.7380522119513</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>702.4823550241877</v>
+        <v>711.70638694133</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>667.8988417941412</v>
+        <v>712.513396914261</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>674.1271107944726</v>
+        <v>701.9584401498378</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>694.746466178799</v>
+        <v>666.959157780866</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>699.2626634826422</v>
+        <v>681.9701063797368</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>719.0855420624018</v>
+        <v>699.9517102909181</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>686.0775150671827</v>
+        <v>710.9515845363603</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>587.9019052258911</v>
+        <v>713.5106241849201</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>536.4854351957717</v>
+        <v>623.6832156111234</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>537.9418614543852</v>
+        <v>565.6808225565442</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>551.1356130477338</v>
+        <v>557.9102901249371</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>551.4517752696406</v>
+        <v>560.1863590987648</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>530.9645252306154</v>
+        <v>551.4686244012239</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>509.43386376386</v>
+        <v>529.0043248331244</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>490.8194858796833</v>
+        <v>503.097950597521</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>492.7371934926441</v>
+        <v>484.0663226043489</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>487.334978262993</v>
+        <v>488.926309816776</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>517.7357200451809</v>
+        <v>483.7899414673075</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>551.9969367854571</v>
+        <v>504.632949102529</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>557.8363324900124</v>
+        <v>536.6809887775901</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>575.1892001758847</v>
+        <v>562.4863140798482</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>644.5835890785077</v>
+        <v>583.1697364484967</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>679.2064373908886</v>
+        <v>628.6016167433104</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>708.4125078713157</v>
+        <v>661.4207540870325</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>662.3661847812343</v>
+        <v>699.7483909697166</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>611.2658735852676</v>
+        <v>675.5784561175062</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>619.9642736781357</v>
+        <v>604.194787113812</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>640.9113954061922</v>
+        <v>622.5224397093427</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>709.2999355748475</v>
+        <v>646.9574280530992</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>720.6810961869792</v>
+        <v>691.8905283584706</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>704.7888314505713</v>
+        <v>729.9094769121837</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>678.2185811826196</v>
+        <v>717.3165874015694</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>634.1629173513752</v>
+        <v>689.0135764442107</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>617.878918859617</v>
+        <v>642.2310011048751</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>626.6161959108274</v>
+        <v>608.8175873969988</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>645.8690842884494</v>
+        <v>614.485772908381</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>722.8070732323602</v>
+        <v>633.7111841791625</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>772.9607378629169</v>
+        <v>697.712138175774</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>717.3066342360244</v>
+        <v>761.1778921080088</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>675.9046814154317</v>
+        <v>743.9261911836184</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>708.7328218649418</v>
+        <v>675.7145093993131</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>762.9697838474101</v>
+        <v>687.5903298192441</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>782.8416902961521</v>
+        <v>739.5787779586556</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>713.7793197170197</v>
+        <v>795.7017100532084</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>637.7621539429299</v>
+        <v>737.3313566052104</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>633.0638650355809</v>
+        <v>644.9993273245695</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>659.8003387395579</v>
+        <v>635.163894170546</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>615.7851344848098</v>
+        <v>665.1911257791028</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>600.9546894465529</v>
+        <v>648.4656065211709</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>670.0620222271425</v>
+        <v>599.1500796630191</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>718.6069440975871</v>
+        <v>643.6653957245824</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>689.6908016536827</v>
+        <v>695.7444416250667</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>665.6404064419803</v>
+        <v>695.7193023512218</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>641.7837035630782</v>
+        <v>658.7062347086317</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>564.0713445504844</v>
+        <v>665.220621840632</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>530.8844062956837</v>
+        <v>588.0848678878863</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>502.6836795092038</v>
+        <v>535.0693592813229</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>517.0282678191711</v>
+        <v>513.0039593014715</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>586.7586398330218</v>
+        <v>498.3825514627824</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>659.4717459791752</v>
+        <v>555.3592201058848</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>725.0538040300967</v>
+        <v>636.5718829096068</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>742.611215105768</v>
+        <v>698.1470757212378</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>743.1951787891933</v>
+        <v>734.353115893299</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>741.2947141521613</v>
+        <v>735.1013787945817</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>762.3908675291204</v>
+        <v>739.2129677061234</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>699.2030938356777</v>
+        <v>746.2414604932519</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>623.571230607439</v>
+        <v>717.4389258710221</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>591.4237992608662</v>
+        <v>648.7895815715774</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>566.5086740196443</v>
+        <v>604.3088885780605</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>591.2952480162517</v>
+        <v>574.4565661054253</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>613.7139534346829</v>
+        <v>582.7766505903469</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>610.0311086487409</v>
+        <v>610.755993364279</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>623.6231353663584</v>
+        <v>611.8963593914657</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>649.6831674476198</v>
+        <v>618.1292992339706</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>735.0652459227831</v>
+        <v>646.5663200067979</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>787.6239617068279</v>
+        <v>705.192989704301</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>705.8795087762633</v>
+        <v>782.8960370786717</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>623.6333213934699</v>
+        <v>752.370406222127</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>616.4409530416322</v>
+        <v>657.8495183794644</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>628.2318698767995</v>
+        <v>620.0293918215323</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>615.5791059253204</v>
+        <v>618.4320428395438</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>649.4935131596549</v>
+        <v>610.7972634027306</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>674.4471270651218</v>
+        <v>640.1416230706616</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>647.7846678053538</v>
+        <v>692.4927640054364</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>652.9814187163652</v>
+        <v>669.9537569231211</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>681.8067400980112</v>
+        <v>649.5219385788005</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>657.6919526489462</v>
+        <v>666.0663889998943</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>589.8360046144546</v>
+        <v>669.0791908040126</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>546.8429916367086</v>
+        <v>625.9949458784604</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>554.4714941750613</v>
+        <v>563.5852098953649</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>594.0204679475585</v>
+        <v>546.9400261799535</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>643.7548797247814</v>
+        <v>576.9399193317781</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>642.9857634292375</v>
+        <v>605.1880375305245</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>711.9849923714128</v>
+        <v>617.6993971302238</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>692.1728123100479</v>
+        <v>665.7507525243886</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>686.2351785876797</v>
+        <v>704.8291893403587</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>695.9495934041229</v>
+        <v>660.072755473692</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>709.5864414068842</v>
+        <v>697.6838218291732</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>695.9096982085384</v>
+        <v>691.4613069683071</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>666.0515223425421</v>
+        <v>722.0466054961321</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>581.6310680596359</v>
+        <v>711.0927915582863</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>536.379060575257</v>
+        <v>635.1698069528027</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>520.1126907190314</v>
+        <v>547.9288329931933</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>524.2808607928566</v>
+        <v>509.0883227516656</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>555.1366888922473</v>
+        <v>502.7522844919474</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>577.8395021644656</v>
+        <v>525.0459887668057</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>595.7116476282351</v>
+        <v>549.8750280887066</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>611.7487563017505</v>
+        <v>569.9171017171238</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>653.0412636443543</v>
+        <v>601.2765350541542</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>663.3781829261238</v>
+        <v>636.4291096176089</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>660.9096788507713</v>
+        <v>664.0609002913322</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>633.9582611787762</v>
+        <v>656.901049555529</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>596.4691011099603</v>
+        <v>659.8335123111383</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>545.2851292326955</v>
+        <v>602.6552684796229</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>475.978754763247</v>
+        <v>566.0054562936523</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>443.5860443921911</v>
+        <v>529.3603140862047</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>453.8568811159109</v>
+        <v>469.0502567253532</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>469.3983066469798</v>
+        <v>452.276243642757</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>490.2437063258844</v>
+        <v>463.8234316827834</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>506.3203673369117</v>
+        <v>486.8375000522178</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>558.8795396395767</v>
+        <v>498.1051268315468</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>680.4448952231041</v>
+        <v>527.5873392608332</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>777.611508097948</v>
+        <v>623.6472918963614</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>819.9082549422201</v>
+        <v>732.5933291916158</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>796.8598940506126</v>
+        <v>786.129523753516</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>723.1720428499102</v>
+        <v>800.563516442196</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>686.8887005944089</v>
+        <v>756.0149980601523</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>694.619982156496</v>
+        <v>697.5895905450784</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>743.943001286425</v>
+        <v>690.1764157702814</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>730.7035998991864</v>
+        <v>707.9518545156702</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>722.7136791140651</v>
+        <v>725.4553616305088</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>731.879489345431</v>
+        <v>729.5383780275415</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>747.6521133090159</v>
+        <v>726.135141375039</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>715.6450741160256</v>
+        <v>719.0584162838149</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>666.882001397596</v>
+        <v>735.1148201516366</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>712.3320762188428</v>
+        <v>737.1258642142493</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>690.4080982284313</v>
+        <v>696.8320628341758</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>683.480734981913</v>
+        <v>714.7711150210512</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>712.3722830313568</v>
+        <v>681.242271663109</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>696.8086902090249</v>
+        <v>684.5727949537377</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>646.8054979409317</v>
+        <v>682.6541233829744</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>648.0882549006992</v>
+        <v>659.946620308574</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>708.749496970313</v>
+        <v>638.5050389400249</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>754.1963694676497</v>
+        <v>659.2139974574707</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>718.9164999632567</v>
+        <v>729.2119154211036</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>694.6690475974151</v>
+        <v>760.2989206198458</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>657.7911375149483</v>
+        <v>734.8295297920799</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>632.0467174990085</v>
+        <v>691.1650238172342</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>619.2153202352415</v>
+        <v>619.5113889826303</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>622.5888611043047</v>
+        <v>598.3055882866779</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>634.8956922390698</v>
+        <v>602.134529109378</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>653.698336394541</v>
+        <v>610.9273344161466</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>674.7224949309611</v>
+        <v>648.9920376258169</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>736.3716388187527</v>
+        <v>661.545897108283</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>766.1645651007802</v>
+        <v>674.8702381348153</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>708.7251267767556</v>
+        <v>735.3143194596328</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>626.6823367542997</v>
+        <v>758.5235318733794</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>599.8702015550634</v>
+        <v>722.4327518490554</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>584.4313740755069</v>
+        <v>636.4247461667674</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>612.6144927135329</v>
+        <v>592.320024006483</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>584.4674923810658</v>
+        <v>578.249485254446</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>594.8445039889521</v>
+        <v>602.4974205810736</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>604.4873298221205</v>
+        <v>589.7385260052488</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>636.453417220423</v>
+        <v>600.9496997811539</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>643.6520613419248</v>
+        <v>620.1757718492331</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>676.0799163653246</v>
+        <v>614.7929013581006</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>664.6501647858827</v>
+        <v>611.1236031951535</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>621.8361246712334</v>
+        <v>662.2702732025232</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>635.23662188868</v>
+        <v>656.2317121939714</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>647.7072887372515</v>
+        <v>651.3490677488107</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>616.0150395072037</v>
+        <v>667.4958915077127</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>614.9796076339271</v>
+        <v>688.4408368443928</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>614.3684524215018</v>
+        <v>643.4205852349919</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>662.9036581285277</v>
+        <v>617.7668864110615</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>699.6139654687568</v>
+        <v>599.7142550349395</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>660.6253479262136</v>
+        <v>618.6193562168114</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>587.5425836999852</v>
+        <v>645.1413320058919</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>588.10890175846</v>
+        <v>632.5810273312982</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>599.3161796528739</v>
+        <v>604.728865961647</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>654.6381679435171</v>
+        <v>625.1271202307862</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>651.0987761193974</v>
+        <v>629.0444901738397</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>555.7864120586373</v>
+        <v>657.7348553693128</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>540.395436099061</v>
+        <v>658.9140292394404</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>565.1443685101754</v>
+        <v>577.5482455740644</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>577.0220982406045</v>
+        <v>538.4081344316201</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>585.5042092670715</v>
+        <v>548.0397430913513</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>651.6100191346368</v>
+        <v>553.017258089028</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>652.0472956299841</v>
+        <v>549.885907044029</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>627.6267818239489</v>
+        <v>620.8135932467371</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>639.8601284048482</v>
+        <v>652.7294543124071</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>669.5587249325285</v>
+        <v>628.5300422301816</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>643.622389115535</v>
+        <v>641.1712950193191</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>637.7173596314947</v>
+        <v>667.6958185790909</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>678.5470742673283</v>
+        <v>665.7859498830589</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>678.2682017073398</v>
+        <v>659.7012938989337</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>632.1235716212641</v>
+        <v>676.4093297866225</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>569.6236395975234</v>
+        <v>680.3915489188057</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>580.5431944984889</v>
+        <v>658.1013154312814</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>589.5742633342138</v>
+        <v>560.5598898766857</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>587.2251338888645</v>
+        <v>567.4001770906898</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>644.8634580473254</v>
+        <v>582.9972078468018</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>760.9509213677939</v>
+        <v>598.0607842573136</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>791.399877505512</v>
+        <v>647.3280856159818</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>864.7500213131138</v>
+        <v>757.4648704976426</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>892.0332181004937</v>
+        <v>774.5774488188317</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>765.6201431628915</v>
+        <v>844.5263149519064</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>766.8370242474225</v>
+        <v>908.018018700659</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>795.2829165121216</v>
+        <v>804.4844155661508</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>753.2357398729346</v>
+        <v>776.7456406867268</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>756.4704690919939</v>
+        <v>787.1876243977454</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>687.7059284872757</v>
+        <v>749.5751714582752</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>628.0939582160272</v>
+        <v>764.7628928430663</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>677.4580542268609</v>
+        <v>702.6848162608417</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>693.4381273674148</v>
+        <v>644.6992453343796</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>614.7719148343072</v>
+        <v>671.348429440684</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>656.1052911079628</v>
+        <v>701.2296980025781</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>678.0691192859081</v>
+        <v>608.0930900116073</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>666.9118026407546</v>
+        <v>603.3088482044491</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>731.8130428729432</v>
+        <v>662.3810747142329</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>719.4736796687948</v>
+        <v>632.0416864730873</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>674.4528409099644</v>
+        <v>703.6653417005709</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>722.0423395023658</v>
+        <v>758.5214950583463</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>767.975334763662</v>
+        <v>719.1891646062345</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>758.396455386503</v>
+        <v>718.703795156614</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>708.1212422970111</v>
+        <v>751.6886178335653</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>758.5742993478561</v>
+        <v>773.4389864373838</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>792.4557940042973</v>
+        <v>733.3466905868704</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>684.8765792108793</v>
+        <v>740.0467897020917</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>684.324018671532</v>
+        <v>801.5270505281933</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>681.2239572264502</v>
+        <v>736.1652933938103</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>675.9214373947202</v>
+        <v>689.0292891064291</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>696.015224840437</v>
+        <v>666.0872124984962</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>706.2703633908427</v>
+        <v>680.6794409342842</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>707.1554766168902</v>
+        <v>683.901456765966</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>747.7386275377285</v>
+        <v>713.8108642099041</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>761.088769511332</v>
+        <v>707.1418536318106</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>666.4748089296495</v>
+        <v>739.5613201968558</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>589.6313272816087</v>
+        <v>731.3971430605193</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>580.7574540344262</v>
+        <v>706.4185588201894</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>593.5294927562609</v>
+        <v>592.9818583898623</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>613.0317199534261</v>
+        <v>561.1938987569829</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>646.7328214544636</v>
+        <v>586.9477125239655</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>722.0509613152899</v>
+        <v>643.3108468426667</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>720.9775836208792</v>
+        <v>665.2603312711562</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>717.5516180857358</v>
+        <v>720.5483351956445</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>780.6014551977114</v>
+        <v>748.4651862846476</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>735.9297301624679</v>
+        <v>707.904585563881</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>709.6732961645102</v>
+        <v>752.5617527443842</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>717.4639814082298</v>
+        <v>735.8882057287701</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>668.7346454993985</v>
+        <v>703.3471563518106</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>607.7537088263512</v>
+        <v>699.053716386743</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>535.8909543771802</v>
+        <v>664.3229476004535</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>485.3639728689814</v>
+        <v>624.2564607731538</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>489.9800152579701</v>
+        <v>573.6054365376049</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>493.3808283248595</v>
+        <v>495.4504499627319</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>532.3097380510831</v>
+        <v>488.5431390446797</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>628.1747562745181</v>
+        <v>493.9815158832062</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>678.6782535376119</v>
+        <v>511.6594804277383</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>714.7596356390977</v>
+        <v>604.6883148525239</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>748.6152492417659</v>
+        <v>669.4788200208563</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>722.1906844087016</v>
+        <v>687.1453604055091</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>696.8676959501749</v>
+        <v>733.9784689106068</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>635.7114130810828</v>
+        <v>736.4316455613107</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>611.1273958106267</v>
+        <v>745.8786315343104</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>584.0285775300913</v>
+        <v>644.1462538968494</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>599.3820538994328</v>
+        <v>607.9806740153799</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>618.1421249632422</v>
+        <v>576.9934823030098</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>640.9096067029623</v>
+        <v>569.5393550270751</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>680.1276482567005</v>
+        <v>585.5013876881117</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>680.3887491967657</v>
+        <v>651.641271896608</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>635.7378502946176</v>
+        <v>674.195838723449</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>561.2166303540107</v>
+        <v>699.2719518837589</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>578.7937232778404</v>
+        <v>625.7660643163376</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>593.1892717137544</v>
+        <v>574.1493044322397</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>545.3949013224246</v>
+        <v>532.8533177125792</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>588.767997545915</v>
+        <v>542.3687805159148</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>619.0301257044553</v>
+        <v>560.7146331634567</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>619.56753443053</v>
+        <v>550.9133290589716</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>687.8576834080832</v>
+        <v>613.1738001026292</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>699.5103294580645</v>
+        <v>641.9863005930324</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>663.5091235235677</v>
+        <v>664.8937745457033</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>643.9236684500997</v>
+        <v>731.2291928867012</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>612.5531899679117</v>
+        <v>723.3247999978403</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>661.9158289905727</v>
+        <v>687.8892663971783</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>696.713845029592</v>
+        <v>600.0800378609483</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>679.8003593802946</v>
+        <v>589.7170976073767</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>708.826293570155</v>
+        <v>658.8652895386531</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>710.1204081794776</v>
+        <v>695.2965373986331</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>666.6851425134723</v>
+        <v>681.6817650269513</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>644.1583688410333</v>
+        <v>722.0474315030856</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>681.4882535566085</v>
+        <v>694.490409848072</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>701.069923476723</v>
+        <v>649.906464629737</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>697.7192555217471</v>
+        <v>616.2384205375133</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>672.3520719700673</v>
+        <v>659.0405499975418</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>636.792555440195</v>
+        <v>674.8908361888084</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>625.0951878274691</v>
+        <v>686.2076401915829</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>631.6203903920723</v>
+        <v>696.5060373542542</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>616.88161057765</v>
+        <v>662.8494129814158</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>603.7516625389685</v>
+        <v>641.0509874357899</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>625.5064512318995</v>
+        <v>660.8839363030938</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>604.610406164511</v>
+        <v>632.7379654693459</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>626.8111150593541</v>
+        <v>594.005214672336</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>708.2548417924386</v>
+        <v>600.9186563291564</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>751.7317297172212</v>
+        <v>578.2040852186014</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>693.3909917169103</v>
+        <v>594.1736585690478</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>620.3958283814472</v>
+        <v>674.5229362270493</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>606.8825366710371</v>
+        <v>741.0260774260564</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>570.8419163123608</v>
+        <v>679.9798368846268</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>514.695683178843</v>
+        <v>607.3175209774035</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>476.195917868381</v>
+        <v>619.5234672550782</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>477.6149814222208</v>
+        <v>576.6598408904997</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>532.4523414478222</v>
+        <v>517.0207461117116</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>605.1995243051351</v>
+        <v>481.2347962907779</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>674.4311930427784</v>
+        <v>482.5814031347022</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>710.7346196808635</v>
+        <v>522.76443558452</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>730.7502832034629</v>
+        <v>588.2002697734379</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>655.8288664049314</v>
+        <v>667.5478078396395</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>552.9683948054185</v>
+        <v>714.3458556402607</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>483.7595293588492</v>
+        <v>747.7966797099498</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>455.360966959006</v>
+        <v>666.2417575340669</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>417.4276012479936</v>
+        <v>564.3284970904006</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>451.1353888595977</v>
+        <v>485.0586512925474</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>480.3468601797363</v>
+        <v>449.293185448937</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>524.9994224209331</v>
+        <v>404.3138273314071</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>562.4980652857516</v>
+        <v>437.814140113062</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>553.3825158607328</v>
+        <v>479.4275581377292</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>541.6169082226361</v>
+        <v>527.700298688444</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>559.1701073656736</v>
+        <v>564.8307339066037</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>540.0880227863922</v>
+        <v>562.5053229191508</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>521.0080127096148</v>
+        <v>567.3999175509721</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>503.5334747533398</v>
+        <v>588.1311982238344</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>511.2090941995575</v>
+        <v>545.8613475016705</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>539.2536094329898</v>
+        <v>488.8949643182059</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>561.8178375921161</v>
+        <v>457.4694964430819</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>513.2810932290113</v>
+        <v>466.5294029174447</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>531.6344065218459</v>
+        <v>503.7436099473211</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>508.0102098665407</v>
+        <v>539.0043961423316</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>536.1164855119682</v>
+        <v>508.99217163294</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>617.0015387750141</v>
+        <v>528.8389667322235</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>653.6820363068614</v>
+        <v>526.7509894940758</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>643.9161908021447</v>
+        <v>543.384655365287</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>666.2455514081671</v>
+        <v>617.4638595450688</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>649.6267162233949</v>
+        <v>650.7555971243733</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>651.9613360420635</v>
+        <v>623.4694585243119</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>611.0236893981096</v>
+        <v>666.1876349765521</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>581.1615034228339</v>
+        <v>677.7767456351285</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>496.5326571119704</v>
+        <v>646.8851912191553</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>482.2163114108093</v>
+        <v>617.2759023448293</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>486.2636213603082</v>
+        <v>609.9753722887158</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>497.016181487254</v>
+        <v>560.1164861096208</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>469.0328334246487</v>
+        <v>516.8314015252236</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>464.6969889486172</v>
+        <v>463.1649070800563</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>547.9892680166927</v>
+        <v>452.903258127094</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>640.8539036174261</v>
+        <v>437.7727414484411</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>696.9788294542241</v>
+        <v>413.9463141090118</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>702.5037441553081</v>
+        <v>474.1179899826307</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>649.8883153926158</v>
+        <v>600.9456373532203</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>588.5846015626726</v>
+        <v>661.0150506955392</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>571.9839217732101</v>
+        <v>713.1718709833308</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>550.6490686208281</v>
+        <v>709.1602463480626</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>537.417404804728</v>
+        <v>646.2144893413324</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>514.4369310909838</v>
+        <v>605.8642934428349</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>536.0976736952807</v>
+        <v>554.4887324910519</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>567.7121665775644</v>
+        <v>516.6534068836199</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>645.9428640774831</v>
+        <v>502.5108850695688</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>696.6461516673235</v>
+        <v>517.9646692806728</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>616.5470047885151</v>
+        <v>539.5480531976773</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>549.8469026205726</v>
+        <v>592.9293387046641</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>485.5717098265018</v>
+        <v>678.7994993655388</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>440.2249203599808</v>
+        <v>691.1271458818646</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>489.194765153627</v>
+        <v>589.3910015466872</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>561.4221374731301</v>
+        <v>509.7561460764837</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>645.0062691703806</v>
+        <v>466.6512809868664</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>684.6306122871511</v>
+        <v>463.4894002513761</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>717.8926156963712</v>
+        <v>515.1132709381159</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>694.2295228845978</v>
+        <v>569.2155284831983</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>713.5079628478138</v>
+        <v>638.3822574199485</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>708.0370285841013</v>
+        <v>727.3485035550493</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>710.4122364685281</v>
+        <v>694.4902345990727</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>737.7996606489319</v>
+        <v>684.6470136110838</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>733.3198003779557</v>
+        <v>709.6705789188036</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>675.1769744896023</v>
+        <v>718.0766635412397</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>685.4397381816852</v>
+        <v>725.9494769738239</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>706.7689917901703</v>
+        <v>742.352777964868</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>710.8788630394542</v>
+        <v>719.2814257827536</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>663.5099903550099</v>
+        <v>654.0804563343841</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>675.6074447730498</v>
+        <v>665.7927629777873</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>624.73951128311</v>
+        <v>736.3425517386872</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>614.9922233599341</v>
+        <v>734.6918282754018</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>579.6956375151012</v>
+        <v>692.5460273535009</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>564.7906066278097</v>
+        <v>671.8356237043395</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>581.953348097386</v>
+        <v>590.2880081862349</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>575.3779207314551</v>
+        <v>586.4742289186893</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>623.079392143552</v>
+        <v>569.7797959506374</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>624.5647838314312</v>
+        <v>547.2601108057233</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>626.7778916967472</v>
+        <v>568.4189109280737</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>660.5837073139469</v>
+        <v>605.2580711264</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>736.4312661609347</v>
+        <v>650.7890623083767</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>736.4886836815572</v>
+        <v>666.3751299109322</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>733.7853582317848</v>
+        <v>650.8098247908833</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>679.9988719924954</v>
+        <v>676.6388111178117</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>684.4096365119867</v>
+        <v>720.8475980413596</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>618.3370521425218</v>
+        <v>716.0089506649001</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>702.0926695212211</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>664.4835537097151</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>674.5361583756448</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>604.5796323149375</v>
       </c>
     </row>
   </sheetData>

--- a/simulated_data/dyads_simulated/cond1_drifting_coupling/HRV_B.xlsx
+++ b/simulated_data/dyads_simulated/cond1_drifting_coupling/HRV_B.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A703"/>
+  <dimension ref="A1:A695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,3507 +435,3467 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>564.9266305642302</v>
+        <v>686.1872715722781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>546.791258127306</v>
+        <v>703.2318746773229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>591.9937121020704</v>
+        <v>638.9666223868003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>648.8577445451438</v>
+        <v>530.7785796021749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>684.3704086570943</v>
+        <v>489.9966208080086</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>683.7894356995271</v>
+        <v>489.8197987748132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>687.4216945860105</v>
+        <v>474.3679674271846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>722.686648148545</v>
+        <v>534.1199449675038</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>680.9520715928815</v>
+        <v>578.6773202420861</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>656.2465553974234</v>
+        <v>622.5743770205128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>649.8192824500472</v>
+        <v>690.6686140698204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>635.7498364903282</v>
+        <v>736.854114199331</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>714.6738734737053</v>
+        <v>729.5627643340667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>715.7812906812726</v>
+        <v>709.2046658021732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>740.4030290368802</v>
+        <v>647.1047209879206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>715.6879449033315</v>
+        <v>561.612846710073</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>678.8668917580108</v>
+        <v>535.1823406750729</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>630.8966894903758</v>
+        <v>553.8187847041592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>635.4720703130088</v>
+        <v>548.6301521614773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>613.4114612209985</v>
+        <v>590.9436778222723</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>577.553501834263</v>
+        <v>589.7351315257158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>541.6571179346174</v>
+        <v>590.8876697211145</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>526.8155213965393</v>
+        <v>632.9412731703296</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>587.7039591663706</v>
+        <v>702.9456438676842</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>625.4529982826202</v>
+        <v>685.7678105688602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>650.8286816478019</v>
+        <v>609.7848271857274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>760.2036784205488</v>
+        <v>561.2023361139684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>772.7633251231545</v>
+        <v>526.2532149576522</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>714.1767786786702</v>
+        <v>532.9118710197563</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>606.6993345476205</v>
+        <v>607.8824910533385</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>659.0196630520176</v>
+        <v>651.8705825747872</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>640.8371050657742</v>
+        <v>630.8472317081737</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>652.4164331265574</v>
+        <v>622.1530622117157</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>609.7272174688549</v>
+        <v>574.9409775674294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>651.1449529624435</v>
+        <v>518.2522542170886</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>708.6679749261577</v>
+        <v>492.6084019462813</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>689.9703209437291</v>
+        <v>461.2598466913944</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>646.0779289160073</v>
+        <v>459.5806414690209</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>634.6210728863077</v>
+        <v>499.9060466582748</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>651.3818200511174</v>
+        <v>555.0491976897973</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>657.9180841607517</v>
+        <v>605.9990513535638</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>642.9486445557621</v>
+        <v>597.6314903080641</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>641.7010777042335</v>
+        <v>595.0739767351472</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>602.8473742011506</v>
+        <v>611.6571288306609</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>582.9971118128369</v>
+        <v>584.1472732344571</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>613.110371795166</v>
+        <v>559.6273748611758</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>643.9705610536919</v>
+        <v>615.4653538835504</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>643.9645815778867</v>
+        <v>613.2186836781237</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>617.7641004200005</v>
+        <v>597.6508880209437</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>616.8587754953841</v>
+        <v>612.3038791763378</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>557.9229062946852</v>
+        <v>550.7032735535872</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>555.3298415835925</v>
+        <v>593.0494574805891</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>527.4897481768761</v>
+        <v>676.0689873503622</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>588.7866546495459</v>
+        <v>675.536973071118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>714.4080725198662</v>
+        <v>623.5907941743264</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>777.166923069494</v>
+        <v>603.0454397078061</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>714.9537153831388</v>
+        <v>565.1120249181361</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>579.4660595385822</v>
+        <v>609.3791455827002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>541.2769345634132</v>
+        <v>648.2367168052434</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>530.4754684745916</v>
+        <v>683.0220634579547</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>514.9253156474956</v>
+        <v>730.1802653274976</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>500.189009848647</v>
+        <v>731.0855977590122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>469.631060930908</v>
+        <v>693.05717861576</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>465.7664011446272</v>
+        <v>730.2858714005396</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>467.3535243257945</v>
+        <v>737.3951258758425</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>511.0186005352944</v>
+        <v>712.6737262139642</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>535.2758872463071</v>
+        <v>824.8418600513361</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>570.2179189564873</v>
+        <v>809.5855012446549</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>629.6984918560611</v>
+        <v>730.1763639709975</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>649.3870047363046</v>
+        <v>709.024181868827</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>683.2922197738753</v>
+        <v>703.0063951695738</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>714.0337179882649</v>
+        <v>641.6186978827554</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>705.5446388069413</v>
+        <v>621.0967763156816</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>633.2758934469069</v>
+        <v>697.5955061683337</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>547.0933372123454</v>
+        <v>766.865210205637</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>501.5514591851939</v>
+        <v>791.6817852726936</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>479.1581119968669</v>
+        <v>772.9868575238684</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>443.6065045762163</v>
+        <v>779.0641707695372</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>472.6225161285598</v>
+        <v>682.4504247453617</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>503.7666682697619</v>
+        <v>633.8496934040948</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>575.9990740915625</v>
+        <v>623.494410216317</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>626.1464892957349</v>
+        <v>717.4605645722138</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>691.7907056607291</v>
+        <v>788.5009937099951</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>721.8332925423069</v>
+        <v>805.7960224732881</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>670.4539320034471</v>
+        <v>786.0376182187351</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>654.512596838785</v>
+        <v>708.4402765848381</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>609.3003332375275</v>
+        <v>637.9800501138036</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>514.4048359741121</v>
+        <v>573.9432744928265</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>456.1233003053431</v>
+        <v>565.0734712432311</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>435.1391920093661</v>
+        <v>636.7602245426838</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>427.5612551017716</v>
+        <v>658.0718410865175</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>413.9737487674893</v>
+        <v>699.8775087924046</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>440.6391271941175</v>
+        <v>722.3551385652841</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>531.6034567938175</v>
+        <v>694.8938595229138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>637.2914268471845</v>
+        <v>687.7422655100177</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>634.5309534463795</v>
+        <v>635.9549362635235</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>634.4689718015034</v>
+        <v>635.8920640121255</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>630.6750884650114</v>
+        <v>673.9509926165539</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>632.6796133329183</v>
+        <v>649.2785371225339</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>610.2836838253012</v>
+        <v>633.8012492088012</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>606.314309742487</v>
+        <v>659.257566278697</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>630.2613601634022</v>
+        <v>705.4537308190021</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>630.9727530956906</v>
+        <v>801.2142930608377</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>605.9583972880773</v>
+        <v>810.9373343527011</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>578.2621275208442</v>
+        <v>702.053150002854</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>571.7390443535493</v>
+        <v>694.8030493313553</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>566.2727341161116</v>
+        <v>714.1903273121102</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>535.7068131996954</v>
+        <v>702.2216968828019</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>522.5296482938262</v>
+        <v>618.3570538727992</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>512.2997005773726</v>
+        <v>532.6486302391089</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>520.7569088526611</v>
+        <v>547.3331839396565</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>511.9252459741546</v>
+        <v>618.523044199577</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>567.220629476239</v>
+        <v>571.0974439178216</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>663.8809480487851</v>
+        <v>545.2050388294509</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>657.1536785912855</v>
+        <v>622.3950029968677</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>572.8621886470222</v>
+        <v>696.2324816494743</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>530.3920797547335</v>
+        <v>783.7290324056454</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>558.4842811126975</v>
+        <v>751.1548270113906</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>567.3164257117804</v>
+        <v>680.188718771447</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>633.1245950884465</v>
+        <v>577.6203413578145</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>708.8416251108356</v>
+        <v>530.4337228451459</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>748.6278101185206</v>
+        <v>562.1421672985747</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>769.1431919549672</v>
+        <v>544.9859618822188</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>760.8419842503906</v>
+        <v>507.8609834451981</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>700.3447852763429</v>
+        <v>498.9079723058296</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>715.5574702144776</v>
+        <v>532.752318519087</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>719.5289805754328</v>
+        <v>528.8552616326712</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>743.9174411420311</v>
+        <v>507.3577744311422</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>743.7481680728553</v>
+        <v>472.7028571648333</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>781.3651926004752</v>
+        <v>496.63495677828</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>768.1620868526551</v>
+        <v>521.1331660370604</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>754.1841388910768</v>
+        <v>573.9576837185894</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>776.9422719942156</v>
+        <v>581.3784223317811</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>676.1936050747721</v>
+        <v>618.872966543961</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>648.9093437026554</v>
+        <v>640.7975752144779</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>658.1877487080732</v>
+        <v>647.0303844096321</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>719.8207425602448</v>
+        <v>602.741730164837</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>709.1800257745717</v>
+        <v>537.1626489951637</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>648.9794881354669</v>
+        <v>504.3999956433254</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>550.557220531104</v>
+        <v>488.3050352126332</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>520.5529284618819</v>
+        <v>497.4166506112567</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>523.0963280625218</v>
+        <v>561.9544536577479</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>561.0602023831319</v>
+        <v>620.6957182656083</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>647.7443028127396</v>
+        <v>630.38914493508</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>729.368648206659</v>
+        <v>672.3875133695714</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>755.0378960567343</v>
+        <v>624.6493156078543</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>741.3513390339261</v>
+        <v>582.781398846322</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>668.2904917036865</v>
+        <v>554.4651458746017</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>650.9225730276142</v>
+        <v>527.8154352318296</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>626.2839303265508</v>
+        <v>538.0053031842351</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>621.4200826293563</v>
+        <v>595.2206089589254</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>631.1948694848581</v>
+        <v>613.6985567080018</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>587.3148872756531</v>
+        <v>632.3023798391603</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>569.4774747530573</v>
+        <v>659.0120137553725</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>562.515203060741</v>
+        <v>660.0649636641833</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>595.7860648884719</v>
+        <v>656.4501779452172</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>683.3159396276898</v>
+        <v>679.5786570774425</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>775.6336995928024</v>
+        <v>665.5403026828708</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>786.8043984687461</v>
+        <v>653.623770118557</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>757.0333887344134</v>
+        <v>633.6478742462646</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>630.3106131284864</v>
+        <v>597.9529208792513</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>567.5012115989233</v>
+        <v>599.8895333820826</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>585.9668616872256</v>
+        <v>611.2766757442643</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>629.9700243759787</v>
+        <v>620.492451261768</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>656.5544313342144</v>
+        <v>591.2261770024827</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>686.3843223596291</v>
+        <v>591.7671561613531</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>724.1032035071555</v>
+        <v>570.4306018924967</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>634.33252385137</v>
+        <v>631.7653062418316</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>628.345854709778</v>
+        <v>646.4747920621647</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>643.0725596382132</v>
+        <v>629.6001182076054</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>608.9630889638187</v>
+        <v>662.663854101524</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>554.9724663988513</v>
+        <v>696.9126591674382</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>537.0455751918684</v>
+        <v>683.5287264433276</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>531.9689013975051</v>
+        <v>625.5106915409385</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>493.7402087478517</v>
+        <v>561.9221649985491</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>494.7405879737374</v>
+        <v>507.5437230829323</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>521.2590272815305</v>
+        <v>475.4400690555229</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>603.3753008083096</v>
+        <v>512.0846570653583</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>696.9605221074886</v>
+        <v>642.6751516789011</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>805.1599505739944</v>
+        <v>727.9423714012694</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>796.0436784404408</v>
+        <v>709.9524902106964</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>749.7906019004574</v>
+        <v>643.4127353230679</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>703.2717243413771</v>
+        <v>665.1460615669151</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>683.7925684651367</v>
+        <v>686.9153389648801</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>601.2106872727969</v>
+        <v>651.5393218125354</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>502.5905990874975</v>
+        <v>628.2245675832741</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>431.3471566543825</v>
+        <v>628.598357773626</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>440.7727210527241</v>
+        <v>610.1247296867314</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>522.7095445878689</v>
+        <v>580.0773243831685</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>619.8637197018115</v>
+        <v>567.556522008374</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>671.1903000560113</v>
+        <v>507.611983320345</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>672.9206742481182</v>
+        <v>518.6422392255849</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>671.4237482647576</v>
+        <v>513.9681051011138</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>728.0722092447292</v>
+        <v>570.4690573973181</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>657.5074432426078</v>
+        <v>571.7482094728012</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>661.6275836245507</v>
+        <v>631.7647963251432</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>600.9616783613012</v>
+        <v>708.9880122663175</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>527.0236528714065</v>
+        <v>755.0522098792527</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>523.1976911191651</v>
+        <v>761.5009181131143</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>519.2258962912746</v>
+        <v>739.9429563185151</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>546.6362018427873</v>
+        <v>741.7291624785776</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>547.9560649315829</v>
+        <v>640.6728058623088</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>549.2711740965746</v>
+        <v>558.1231471148413</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>573.4568513018559</v>
+        <v>575.9242574147976</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>629.6391231940817</v>
+        <v>589.4368848187668</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>661.8919047128173</v>
+        <v>586.7720955197626</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>652.6990779395874</v>
+        <v>620.8839289876096</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>622.8006437923739</v>
+        <v>701.8140454203206</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>595.2776194341141</v>
+        <v>694.8718099530993</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>590.6665208167681</v>
+        <v>627.0228849999171</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>582.1441758189962</v>
+        <v>567.0882942739297</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>530.0939945539085</v>
+        <v>565.7547575984836</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>488.7340193648981</v>
+        <v>581.3494605224605</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>484.683783448645</v>
+        <v>588.9142632627227</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>516.5353258472294</v>
+        <v>638.8464499819122</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>526.944983316838</v>
+        <v>651.0961381518428</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>489.7674604232236</v>
+        <v>708.909235669978</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>515.6086878712927</v>
+        <v>672.6107993079609</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>511.8650010665817</v>
+        <v>692.271199944571</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>541.2991094205495</v>
+        <v>627.3575923801786</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>561.9734027914376</v>
+        <v>586.3221593115782</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>558.8372221383224</v>
+        <v>598.3574206613014</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>576.1095003301193</v>
+        <v>570.4994205086678</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>578.5340092660931</v>
+        <v>502.4855252302132</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>578.2886693017986</v>
+        <v>519.1306268723963</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>592.6583615623144</v>
+        <v>572.6005789513238</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>617.188699265256</v>
+        <v>617.6676160306727</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>587.2461417357613</v>
+        <v>621.3555360921248</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>571.3221593166224</v>
+        <v>634.4487773414471</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>594.8267843565134</v>
+        <v>674.3291404310696</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>617.3916274129567</v>
+        <v>734.5380141438795</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>567.2659413404801</v>
+        <v>754.159362551917</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>506.3385957747641</v>
+        <v>751.9332649227124</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>472.0581820257337</v>
+        <v>727.0504104384656</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>482.4065899137508</v>
+        <v>659.217583396952</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>492.447059367322</v>
+        <v>609.2612197178653</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>493.4935156094866</v>
+        <v>572.9538474891456</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>497.4662204292031</v>
+        <v>575.9554785030616</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>563.308974237799</v>
+        <v>602.6479803460347</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>561.0711297331648</v>
+        <v>593.4816908755067</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>508.2470149467326</v>
+        <v>679.8632531508417</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>489.8339393414233</v>
+        <v>743.2571815115807</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>514.4279706696864</v>
+        <v>773.9588682412375</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>579.210496143304</v>
+        <v>701.5796599427517</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>715.2844206275972</v>
+        <v>657.8211502233557</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>790.3142225677016</v>
+        <v>627.8278514398039</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>742.9475382712951</v>
+        <v>555.944660459005</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>765.0917881260284</v>
+        <v>486.2003890872018</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>661.192969603519</v>
+        <v>510.7442964175561</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>539.5548245130612</v>
+        <v>611.7088369888108</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>475.2694687303745</v>
+        <v>714.2146588579692</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>449.0234102353554</v>
+        <v>746.7757381349429</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>481.8992699574949</v>
+        <v>797.2204859771068</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>534.5650932057424</v>
+        <v>805.3607917713066</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>544.7846455431034</v>
+        <v>813.8368531688798</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>561.8096022036525</v>
+        <v>773.6255202798645</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>644.8394302821896</v>
+        <v>697.1479764363835</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>668.0354458583224</v>
+        <v>618.140388687948</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>606.7067325923858</v>
+        <v>548.129103404051</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>606.9813141752149</v>
+        <v>520.7265312336062</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>652.5039521870326</v>
+        <v>529.7599690113657</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>663.6583624005823</v>
+        <v>542.8949904971887</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>673.7749413650249</v>
+        <v>547.9841466441258</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>712.3124815032895</v>
+        <v>578.9378239088592</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>724.0074369796616</v>
+        <v>638.340267639478</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>734.6702338545583</v>
+        <v>630.2461413959293</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>698.2517738994716</v>
+        <v>609.5012931772885</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>598.0774867531977</v>
+        <v>615.8939254499671</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>511.2825842859934</v>
+        <v>614.6571616932874</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>444.2400332676755</v>
+        <v>620.8647268123286</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>434.1884454211993</v>
+        <v>558.591871080921</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>523.4377366398348</v>
+        <v>505.0832009214616</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>605.1040835183699</v>
+        <v>506.5631572302607</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>635.4210470715884</v>
+        <v>603.4498371334109</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>695.9343015264494</v>
+        <v>680.6599216512268</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>742.7466440728097</v>
+        <v>715.5079205408015</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>759.2530577509251</v>
+        <v>707.0765790328153</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>767.0190873501781</v>
+        <v>684.8588687924746</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>703.4820155037096</v>
+        <v>626.3524137083039</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>723.8772048865485</v>
+        <v>558.3725059578626</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>802.544555203724</v>
+        <v>541.1728234068391</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>825.7402542765249</v>
+        <v>558.3054194980832</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>860.1028346670034</v>
+        <v>544.3761814242976</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>819.4967715925827</v>
+        <v>541.142995396882</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>743.1052968975393</v>
+        <v>538.6716617907723</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>638.4013019106192</v>
+        <v>473.2619746083628</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>666.2580244517926</v>
+        <v>451.7321636383826</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>676.9466252133043</v>
+        <v>497.0731173481511</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>699.1123912964952</v>
+        <v>569.7342921325799</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>717.8659972269656</v>
+        <v>668.5568929514432</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>669.0936793361288</v>
+        <v>728.9991683252879</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>690.1594023801749</v>
+        <v>760.6906678081202</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>699.0514601185112</v>
+        <v>706.4704634375687</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>710.7380522119513</v>
+        <v>618.1774046613668</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>711.70638694133</v>
+        <v>532.7309104643234</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>712.513396914261</v>
+        <v>534.5218040624502</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>701.9584401498378</v>
+        <v>541.4689871669225</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>666.959157780866</v>
+        <v>537.6689637778043</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>681.9701063797368</v>
+        <v>576.6019106038982</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>699.9517102909181</v>
+        <v>622.9045361315286</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>710.9515845363603</v>
+        <v>662.2161853942714</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>713.5106241849201</v>
+        <v>588.2811208599037</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>623.6832156111234</v>
+        <v>528.3057488927625</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>565.6808225565442</v>
+        <v>528.909160311855</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>557.9102901249371</v>
+        <v>529.2816925737895</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>560.1863590987648</v>
+        <v>499.0102204604909</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>551.4686244012239</v>
+        <v>466.8227614313878</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>529.0043248331244</v>
+        <v>440.3877382202097</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>503.097950597521</v>
+        <v>420.7482754370631</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>484.0663226043489</v>
+        <v>412.6900888411171</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>488.926309816776</v>
+        <v>430.9403878183389</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>483.7899414673075</v>
+        <v>468.6677153366645</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>504.632949102529</v>
+        <v>505.6964001134361</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>536.6809887775901</v>
+        <v>540.6692234154775</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>562.4863140798482</v>
+        <v>518.9717994704779</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>583.1697364484967</v>
+        <v>495.1169194513625</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>628.6016167433104</v>
+        <v>516.8141138580893</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>661.4207540870325</v>
+        <v>539.9045480378106</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>699.7483909697166</v>
+        <v>575.9481937824944</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>675.5784561175062</v>
+        <v>560.574384265152</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>604.194787113812</v>
+        <v>563.4722481112249</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>622.5224397093427</v>
+        <v>597.5648257159776</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>646.9574280530992</v>
+        <v>638.2059182446653</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>691.8905283584706</v>
+        <v>681.8533870566625</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>729.9094769121837</v>
+        <v>703.2086600699756</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>717.3165874015694</v>
+        <v>680.8448148863988</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>689.0135764442107</v>
+        <v>632.3592410415131</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>642.2310011048751</v>
+        <v>588.4549610705392</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>608.8175873969988</v>
+        <v>594.6175540238414</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>614.485772908381</v>
+        <v>593.9869859003579</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>633.7111841791625</v>
+        <v>599.4655822194943</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>697.712138175774</v>
+        <v>627.9040258180544</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>761.1778921080088</v>
+        <v>659.2611640469954</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>743.9261911836184</v>
+        <v>663.5977687978141</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>675.7145093993131</v>
+        <v>606.4151717754669</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>687.5903298192441</v>
+        <v>603.0008158070643</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>739.5787779586556</v>
+        <v>647.1132826753774</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>795.7017100532084</v>
+        <v>697.6344748366046</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>737.3313566052104</v>
+        <v>738.8145515368763</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>644.9993273245695</v>
+        <v>730.8163960822753</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>635.163894170546</v>
+        <v>617.6725680649326</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>665.1911257791028</v>
+        <v>569.5721858834588</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>648.4656065211709</v>
+        <v>596.5025187559831</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>599.1500796630191</v>
+        <v>591.8161992560442</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>643.6653957245824</v>
+        <v>541.5380111212755</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>695.7444416250667</v>
+        <v>556.0591944205555</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>695.7193023512218</v>
+        <v>613.469443460815</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>658.7062347086317</v>
+        <v>663.6948263721081</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>665.220621840632</v>
+        <v>669.5224127406334</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>588.0848678878863</v>
+        <v>686.2577175442937</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>535.0693592813229</v>
+        <v>697.7202212465556</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>513.0039593014715</v>
+        <v>635.6149981023407</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>498.3825514627824</v>
+        <v>610.3270805703573</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>555.3592201058848</v>
+        <v>552.7457301241725</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>636.5718829096068</v>
+        <v>508.9627044479812</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>698.1470757212378</v>
+        <v>534.3383418587848</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>734.353115893299</v>
+        <v>575.1753025548965</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>735.1013787945817</v>
+        <v>642.3382232487995</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>739.2129677061234</v>
+        <v>708.0534834416596</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>746.2414604932519</v>
+        <v>715.3390148002359</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>717.4389258710221</v>
+        <v>698.8722783202661</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>648.7895815715774</v>
+        <v>711.4253021937031</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>604.3088885780605</v>
+        <v>669.5664785783322</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>574.4565661054253</v>
+        <v>616.8402755813815</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>582.7766505903469</v>
+        <v>589.8869839769816</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>610.755993364279</v>
+        <v>583.2849505756599</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>611.8963593914657</v>
+        <v>580.381892774966</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>618.1292992339706</v>
+        <v>568.716349745273</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>646.5663200067979</v>
+        <v>556.0988396413791</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>705.192989704301</v>
+        <v>540.2996427116307</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>782.8960370786717</v>
+        <v>565.9561833257101</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>752.370406222127</v>
+        <v>616.882590638653</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>657.8495183794644</v>
+        <v>679.903211419628</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>620.0293918215323</v>
+        <v>704.3579615642557</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>618.4320428395438</v>
+        <v>657.1333571080231</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>610.7972634027306</v>
+        <v>607.4850653360215</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>640.1416230706616</v>
+        <v>574.3729283184962</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>692.4927640054364</v>
+        <v>608.8278936361462</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>669.9537569231211</v>
+        <v>579.2634237737673</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>649.5219385788005</v>
+        <v>572.0006715378645</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>666.0663889998943</v>
+        <v>632.0118389415086</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>669.0791908040126</v>
+        <v>695.713339884179</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>625.9949458784604</v>
+        <v>708.987461390592</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>563.5852098953649</v>
+        <v>702.8858037759562</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>546.9400261799535</v>
+        <v>695.7902128462763</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>576.9399193317781</v>
+        <v>628.053600737104</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>605.1880375305245</v>
+        <v>578.056690142887</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>617.6993971302238</v>
+        <v>577.9422809717403</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>665.7507525243886</v>
+        <v>624.7689424515386</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>704.8291893403587</v>
+        <v>667.4873673801187</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>660.072755473692</v>
+        <v>627.3429776198896</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>697.6838218291732</v>
+        <v>674.0950037994935</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>691.4613069683071</v>
+        <v>638.5579362229805</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>722.0466054961321</v>
+        <v>583.9797493291599</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>711.0927915582863</v>
+        <v>631.3686188136671</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>635.1698069528027</v>
+        <v>679.229475952809</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>547.9288329931933</v>
+        <v>738.5536783818054</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>509.0883227516656</v>
+        <v>784.0407294160059</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>502.7522844919474</v>
+        <v>712.4487373779687</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>525.0459887668057</v>
+        <v>615.1331169390346</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>549.8750280887066</v>
+        <v>587.3485746020322</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>569.9171017171238</v>
+        <v>560.8379594804944</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>601.2765350541542</v>
+        <v>580.5969344538653</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>636.4291096176089</v>
+        <v>629.7497578531761</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>664.0609002913322</v>
+        <v>664.783022207132</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>656.901049555529</v>
+        <v>667.581735482571</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>659.8335123111383</v>
+        <v>654.0751161996639</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>602.6552684796229</v>
+        <v>641.2122707767764</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>566.0054562936523</v>
+        <v>615.9954764599718</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>529.3603140862047</v>
+        <v>582.9555998982414</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>469.0502567253532</v>
+        <v>571.3706759860031</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>452.276243642757</v>
+        <v>613.1691519669857</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>463.8234316827834</v>
+        <v>605.3381892894549</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>486.8375000522178</v>
+        <v>581.7658408844864</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>498.1051268315468</v>
+        <v>595.7714973531552</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>527.5873392608332</v>
+        <v>571.4683189845573</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>623.6472918963614</v>
+        <v>534.8905109512998</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>732.5933291916158</v>
+        <v>596.5261130452859</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>786.129523753516</v>
+        <v>683.2852201733317</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>800.563516442196</v>
+        <v>732.5881974805384</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>756.0149980601523</v>
+        <v>744.1152121156733</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>697.5895905450784</v>
+        <v>708.7753035816604</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>690.1764157702814</v>
+        <v>675.4044144786349</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>707.9518545156702</v>
+        <v>663.4019443415013</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>725.4553616305088</v>
+        <v>640.0592619858116</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>729.5383780275415</v>
+        <v>638.7870509103664</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>726.135141375039</v>
+        <v>649.893067492485</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>719.0584162838149</v>
+        <v>647.4703946213367</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>735.1148201516366</v>
+        <v>690.5835360620358</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>737.1258642142493</v>
+        <v>706.8893687150535</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>696.8320628341758</v>
+        <v>707.0653166015859</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>714.7711150210512</v>
+        <v>702.4798987712302</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>681.242271663109</v>
+        <v>728.59880413273</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>684.5727949537377</v>
+        <v>725.807839708466</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>682.6541233829744</v>
+        <v>702.105267550678</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>659.946620308574</v>
+        <v>696.4674763766538</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>638.5050389400249</v>
+        <v>699.3402967946167</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>659.2139974574707</v>
+        <v>663.6977056572277</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>729.2119154211036</v>
+        <v>653.6851379432846</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>760.2989206198458</v>
+        <v>725.0877477724202</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>734.8295297920799</v>
+        <v>814.3816659984964</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>691.1650238172342</v>
+        <v>813.5499649984581</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>619.5113889826303</v>
+        <v>758.8721871634903</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>598.3055882866779</v>
+        <v>687.8084156702471</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>602.134529109378</v>
+        <v>588.9533209642082</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>610.9273344161466</v>
+        <v>616.3380750892316</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>648.9920376258169</v>
+        <v>614.0017936875211</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>661.545897108283</v>
+        <v>590.2325550329124</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>674.8702381348153</v>
+        <v>583.9137571571769</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>735.3143194596328</v>
+        <v>590.2770997610105</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>758.5235318733794</v>
+        <v>616.3612755221379</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>722.4327518490554</v>
+        <v>622.5179256091451</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>636.4247461667674</v>
+        <v>574.9040489134245</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>592.320024006483</v>
+        <v>564.4937115372954</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>578.249485254446</v>
+        <v>569.6283710980765</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>602.4974205810736</v>
+        <v>578.4144017274002</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>589.7385260052488</v>
+        <v>569.5294752680979</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>600.9496997811539</v>
+        <v>561.6500833846203</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>620.1757718492331</v>
+        <v>589.8984355200696</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>614.7929013581006</v>
+        <v>641.559478923341</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>611.1236031951535</v>
+        <v>655.2419473117652</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>662.2702732025232</v>
+        <v>655.7598636229613</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>656.2317121939714</v>
+        <v>637.6543483067394</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>651.3490677488107</v>
+        <v>598.217738905646</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>667.4958915077127</v>
+        <v>619.8022188198706</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>688.4408368443928</v>
+        <v>667.4399225947809</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>643.4205852349919</v>
+        <v>677.988014805976</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>617.7668864110615</v>
+        <v>738.9005334011927</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>599.7142550349395</v>
+        <v>765.2731130064581</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>618.6193562168114</v>
+        <v>772.3934228287703</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>645.1413320058919</v>
+        <v>856.8168536570511</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>632.5810273312982</v>
+        <v>719.557636801369</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>604.728865961647</v>
+        <v>564.5353103017783</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>625.1271202307862</v>
+        <v>514.0390872687135</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>629.0444901738397</v>
+        <v>555.3313639019848</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>657.7348553693128</v>
+        <v>625.0943815675214</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>658.9140292394404</v>
+        <v>689.4578198679824</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>577.5482455740644</v>
+        <v>742.0030089858187</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>538.4081344316201</v>
+        <v>709.0035078263099</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>548.0397430913513</v>
+        <v>711.362394601565</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>553.017258089028</v>
+        <v>630.2307026468839</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>549.885907044029</v>
+        <v>523.1219785746362</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>620.8135932467371</v>
+        <v>521.8318752408209</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>652.7294543124071</v>
+        <v>558.080569139122</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>628.5300422301816</v>
+        <v>616.9102914544737</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>641.1712950193191</v>
+        <v>634.8743914211923</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>667.6958185790909</v>
+        <v>672.1215875656981</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>665.7859498830589</v>
+        <v>695.5399422488426</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>659.7012938989337</v>
+        <v>627.0280322589201</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>676.4093297866225</v>
+        <v>589.8274664257883</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>680.3915489188057</v>
+        <v>636.2711988543879</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>658.1013154312814</v>
+        <v>717.8443705719815</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>560.5598898766857</v>
+        <v>706.8379922150712</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>567.4001770906898</v>
+        <v>682.2319218485973</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>582.9972078468018</v>
+        <v>658.4230093128554</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>598.0607842573136</v>
+        <v>619.2356873605718</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>647.3280856159818</v>
+        <v>592.5720641976113</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>757.4648704976426</v>
+        <v>604.8904783780813</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>774.5774488188317</v>
+        <v>645.0070053304557</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>844.5263149519064</v>
+        <v>616.4074629535321</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>908.018018700659</v>
+        <v>660.044746288122</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>804.4844155661508</v>
+        <v>730.3497611397916</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>776.7456406867268</v>
+        <v>735.4440259502439</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>787.1876243977454</v>
+        <v>769.8765945271475</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>749.5751714582752</v>
+        <v>787.476595848716</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>764.7628928430663</v>
+        <v>676.640634590342</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>702.6848162608417</v>
+        <v>632.702132043562</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>644.6992453343796</v>
+        <v>606.9475315446198</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>671.348429440684</v>
+        <v>558.9962757363764</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>701.2296980025781</v>
+        <v>543.089356517271</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>608.0930900116073</v>
+        <v>538.7471566321551</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>603.3088482044491</v>
+        <v>550.4694184264167</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>662.3810747142329</v>
+        <v>615.4744791102758</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>632.0416864730873</v>
+        <v>644.8196685204834</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>703.6653417005709</v>
+        <v>683.8113277526645</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>758.5214950583463</v>
+        <v>727.8595881187471</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>719.1891646062345</v>
+        <v>704.3989953941718</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>718.703795156614</v>
+        <v>617.0494979191972</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>751.6886178335653</v>
+        <v>561.3660543710921</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>773.4389864373838</v>
+        <v>553.7490122622444</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>733.3466905868704</v>
+        <v>541.6256371583472</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>740.0467897020917</v>
+        <v>569.1443535490635</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>801.5270505281933</v>
+        <v>610.0686677829685</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>736.1652933938103</v>
+        <v>655.6766886799892</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>689.0292891064291</v>
+        <v>684.9945507972279</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>666.0872124984962</v>
+        <v>685.6863236212121</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>680.6794409342842</v>
+        <v>732.8919700037204</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>683.901456765966</v>
+        <v>705.0181642761686</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>713.8108642099041</v>
+        <v>717.077359742234</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>707.1418536318106</v>
+        <v>676.4986917832516</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>739.5613201968558</v>
+        <v>645.6619493478684</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>731.3971430605193</v>
+        <v>551.6080571150042</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>706.4185588201894</v>
+        <v>561.1141639997754</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>592.9818583898623</v>
+        <v>603.0101489973276</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>561.1938987569829</v>
+        <v>593.5455845394699</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>586.9477125239655</v>
+        <v>600.9924933389357</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>643.3108468426667</v>
+        <v>569.4054250135423</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>665.2603312711562</v>
+        <v>604.7555570310692</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>720.5483351956445</v>
+        <v>612.8354737067525</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>748.4651862846476</v>
+        <v>666.9952434674542</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>707.904585563881</v>
+        <v>742.2791966808973</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>752.5617527443842</v>
+        <v>785.6207718252222</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>735.8882057287701</v>
+        <v>720.1904300581532</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>703.3471563518106</v>
+        <v>700.9605144538682</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>699.053716386743</v>
+        <v>707.0788493347209</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>664.3229476004535</v>
+        <v>654.6891101336882</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>624.2564607731538</v>
+        <v>667.221135247587</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>573.6054365376049</v>
+        <v>663.2605096103248</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>495.4504499627319</v>
+        <v>604.7256485424555</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>488.5431390446797</v>
+        <v>599.4920238778718</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>493.9815158832062</v>
+        <v>620.8335467657093</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>511.6594804277383</v>
+        <v>654.0573627757453</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>604.6883148525239</v>
+        <v>722.9246591375045</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>669.4788200208563</v>
+        <v>738.0284830927621</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>687.1453604055091</v>
+        <v>759.9643115559047</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>733.9784689106068</v>
+        <v>768.1431711180835</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>736.4316455613107</v>
+        <v>775.9839420348271</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>745.8786315343104</v>
+        <v>767.5251084679076</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>644.1462538968494</v>
+        <v>702.7682600819389</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>607.9806740153799</v>
+        <v>575.4630339551454</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>576.9934823030098</v>
+        <v>499.5253729405817</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>569.5393550270751</v>
+        <v>535.6023381264663</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>585.5013876881117</v>
+        <v>580.5479326442651</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>651.641271896608</v>
+        <v>598.1499597036191</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>674.195838723449</v>
+        <v>602.4496502216721</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>699.2719518837589</v>
+        <v>588.7372076508086</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>625.7660643163376</v>
+        <v>606.721533322343</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>574.1493044322397</v>
+        <v>657.5277939994066</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>532.8533177125792</v>
+        <v>705.979917425509</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>542.3687805159148</v>
+        <v>714.9743082144937</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>560.7146331634567</v>
+        <v>687.4447829299015</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>550.9133290589716</v>
+        <v>682.306450702697</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>613.1738001026292</v>
+        <v>696.2989797543173</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>641.9863005930324</v>
+        <v>700.4240280170393</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>664.8937745457033</v>
+        <v>740.7565407003176</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>731.2291928867012</v>
+        <v>778.6707269445969</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>723.3247999978403</v>
+        <v>772.6231525377898</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>687.8892663971783</v>
+        <v>725.6910973879371</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>600.0800378609483</v>
+        <v>662.8324187594217</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>589.7170976073767</v>
+        <v>573.798504686863</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>658.8652895386531</v>
+        <v>531.7558506541786</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>695.2965373986331</v>
+        <v>483.1438764874747</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>681.6817650269513</v>
+        <v>465.9833552099144</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>722.0474315030856</v>
+        <v>476.4446359226326</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>694.490409848072</v>
+        <v>471.9370069876732</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>649.906464629737</v>
+        <v>535.7615670039308</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>616.2384205375133</v>
+        <v>612.1311916163563</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>659.0405499975418</v>
+        <v>680.2138508293751</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>674.8908361888084</v>
+        <v>655.8580986721267</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>686.2076401915829</v>
+        <v>622.6026079697817</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>696.5060373542542</v>
+        <v>694.8061902264158</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>662.8494129814158</v>
+        <v>781.2198104784898</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>641.0509874357899</v>
+        <v>791.4834284648009</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>660.8839363030938</v>
+        <v>670.1241352189413</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>632.7379654693459</v>
+        <v>596.0325967540143</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>594.005214672336</v>
+        <v>602.870138688786</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>600.9186563291564</v>
+        <v>627.9510691991845</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>578.2040852186014</v>
+        <v>698.0366385404864</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>594.1736585690478</v>
+        <v>754.2938126036347</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>674.5229362270493</v>
+        <v>722.0917274252088</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>741.0260774260564</v>
+        <v>737.5487835352033</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>679.9798368846268</v>
+        <v>751.2252961082027</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>607.3175209774035</v>
+        <v>718.7138473942127</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>619.5234672550782</v>
+        <v>626.9205727232929</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>576.6598408904997</v>
+        <v>581.0761065540078</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>517.0207461117116</v>
+        <v>591.8117529126334</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>481.2347962907779</v>
+        <v>616.9006413376223</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>482.5814031347022</v>
+        <v>682.3838215295837</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>522.76443558452</v>
+        <v>782.6585249901541</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>588.2002697734379</v>
+        <v>834.5174678186709</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>667.5478078396395</v>
+        <v>835.9149625550231</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>714.3458556402607</v>
+        <v>877.9164190675033</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>747.7966797099498</v>
+        <v>866.2281150669173</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>666.2417575340669</v>
+        <v>719.3322945376508</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>564.3284970904006</v>
+        <v>715.4060166806175</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>485.0586512925474</v>
+        <v>639.5410742774743</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>449.293185448937</v>
+        <v>644.5237286747556</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>404.3138273314071</v>
+        <v>668.9105047368571</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>437.814140113062</v>
+        <v>680.0660498273601</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>479.4275581377292</v>
+        <v>696.1492768305106</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>527.700298688444</v>
+        <v>711.1321141097164</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>564.8307339066037</v>
+        <v>715.0724131133757</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>562.5053229191508</v>
+        <v>741.9835528287422</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>567.3999175509721</v>
+        <v>725.2392741793301</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>588.1311982238344</v>
+        <v>662.0635386743743</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>545.8613475016705</v>
+        <v>669.5289249983603</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>488.8949643182059</v>
+        <v>705.2643030816057</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>457.4694964430819</v>
+        <v>813.2656794495574</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>466.5294029174447</v>
+        <v>836.5285107457225</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>503.7436099473211</v>
+        <v>778.8215423610723</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>539.0043961423316</v>
+        <v>774.4168150623523</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>508.99217163294</v>
+        <v>753.1409736553201</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>528.8389667322235</v>
+        <v>684.4370892607685</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>526.7509894940758</v>
+        <v>671.7442733606731</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>543.384655365287</v>
+        <v>604.9973877660477</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>617.4638595450688</v>
+        <v>580.4071297386599</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>650.7555971243733</v>
+        <v>634.6340885588688</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>623.4694585243119</v>
+        <v>651.4158829407393</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>666.1876349765521</v>
+        <v>699.9529571838821</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>677.7767456351285</v>
+        <v>770.3275070733753</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>646.8851912191553</v>
+        <v>773.3870991836511</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>617.2759023448293</v>
+        <v>700.9013311960075</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>609.9753722887158</v>
+        <v>724.8582064657398</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>560.1164861096208</v>
+        <v>822.8400630226247</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>516.8314015252236</v>
+        <v>827.4503012254968</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>463.1649070800563</v>
+        <v>784.45039237522</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>452.903258127094</v>
+        <v>739.9322649013129</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>437.7727414484411</v>
+        <v>774.797098999386</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>413.9463141090118</v>
+        <v>729.8904291023405</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>474.1179899826307</v>
+        <v>693.7567322958103</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>600.9456373532203</v>
+        <v>652.5720441156295</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>661.0150506955392</v>
+        <v>651.561585862396</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>713.1718709833308</v>
+        <v>623.3428326135595</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>709.1602463480626</v>
+        <v>603.9123652205376</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>646.2144893413324</v>
+        <v>599.0546553721288</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>605.8642934428349</v>
+        <v>622.7424596527271</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>554.4887324910519</v>
+        <v>639.1905899915287</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>516.6534068836199</v>
+        <v>617.1746667081379</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>502.5108850695688</v>
+        <v>617.1325076123253</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>517.9646692806728</v>
+        <v>603.8782442343518</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>539.5480531976773</v>
+        <v>615.0500027604267</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>592.9293387046641</v>
+        <v>648.9575382913699</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>678.7994993655388</v>
+        <v>639.21368313828</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>691.1271458818646</v>
+        <v>613.9478753789831</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>589.3910015466872</v>
+        <v>598.5894574390613</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>509.7561460764837</v>
+        <v>623.3942183805539</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>466.6512809868664</v>
+        <v>676.8392246491999</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>463.4894002513761</v>
+        <v>738.6536831795638</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>515.1132709381159</v>
+        <v>705.3392408332684</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>569.2155284831983</v>
+        <v>616.341114634281</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>638.3822574199485</v>
+        <v>560.8063945247181</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>727.3485035550493</v>
+        <v>550.4194716452275</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>694.4902345990727</v>
+        <v>502.9168842950185</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>684.6470136110838</v>
+        <v>522.21997163781</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>709.6705789188036</v>
+        <v>553.0617882708384</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>718.0766635412397</v>
+        <v>591.9719622530124</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>725.9494769738239</v>
+        <v>585.624230129838</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>742.352777964868</v>
+        <v>624.7987062222364</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>719.2814257827536</v>
+        <v>668.3549732422307</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>654.0804563343841</v>
+        <v>657.1098837740124</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>665.7927629777873</v>
+        <v>649.483369243967</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>736.3425517386872</v>
+        <v>735.4167676019188</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>734.6918282754018</v>
+        <v>767.7862593872646</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>692.5460273535009</v>
+        <v>681.7418684407812</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>671.8356237043395</v>
+        <v>581.7749907803318</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>590.2880081862349</v>
+        <v>575.9147563326792</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>586.4742289186893</v>
+        <v>606.8968701621884</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>569.7797959506374</v>
+        <v>635.3053552556958</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>547.2601108057233</v>
+        <v>628.4530097521497</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>568.4189109280737</v>
+        <v>613.0794020311896</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>605.2580711264</v>
+        <v>630.4254610157045</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>650.7890623083767</v>
+        <v>641.1009211683449</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>666.3751299109322</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="n">
-        <v>650.8098247908833</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="n">
-        <v>676.6388111178117</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="n">
-        <v>720.8475980413596</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="n">
-        <v>716.0089506649001</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="n">
-        <v>702.0926695212211</v>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="n">
-        <v>664.4835537097151</v>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="n">
-        <v>674.5361583756448</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="n">
-        <v>604.5796323149375</v>
+        <v>666.5168074595158</v>
       </c>
     </row>
   </sheetData>
